--- a/Supplementary_Tables_ARF_Sepsis_US_2010_2025.xlsx
+++ b/Supplementary_Tables_ARF_Sepsis_US_2010_2025.xlsx
@@ -17,12 +17,13 @@
     <sheet name="Deaths_by_sex" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Crude_rate_by_sex" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="ARF_Sepsis_overlap_rates" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Overall_Summary" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -60,6 +61,9 @@
     <t xml:space="preserve">Crude rate (/100,000)</t>
   </si>
   <si>
+    <t xml:space="preserve">AAMR (/100,000), age-adjusted (25–85+)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010</t>
   </si>
   <si>
@@ -153,508 +157,556 @@
     <t xml:space="preserve">461,801,867</t>
   </si>
   <si>
-    <t xml:space="preserve">Crude mortality rate, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15</t>
+    <t xml:space="preserve">Crude mortality rate (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.45</t>
   </si>
   <si>
     <t xml:space="preserve">49.58</t>
   </si>
   <si>
-    <t xml:space="preserve">22.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">45.36</t>
   </si>
   <si>
-    <t xml:space="preserve">20.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age ≥65, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age 45–64, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age 25–44, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Indian or Alaska Native, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.58</t>
+    <t xml:space="preserve">25.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age ≥65 AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 45–64 AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 25–44 AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Indian or Alaska Native AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black or African American AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than one race AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,833,170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">742,157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223,826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418,046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,147,578,398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">684,111,948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231,394,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462,788,412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171,542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100,037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,064,109,482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">662,244,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222,645,766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450,542,487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.11</t>
   </si>
   <si>
     <t xml:space="preserve">16.36</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black or African American, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than one race, annual (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,833,170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">742,157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223,826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418,046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,147,578,398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">684,111,948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231,394,206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">462,788,412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341,425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198,638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132,584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,128,218,964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,324,168,042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">445,291,532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901,084,974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19</t>
+    <t xml:space="preserve">14.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42</t>
   </si>
   <si>
     <t xml:space="preserve"> NA</t>
   </si>
   <si>
-    <t xml:space="preserve">13.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29</t>
+    <t xml:space="preserve">23.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58</t>
   </si>
   <si>
     <t xml:space="preserve">ARF_deaths_25_44</t>
@@ -684,31 +736,31 @@
     <t xml:space="preserve">ARF_Sepsis_deaths_65_plus</t>
   </si>
   <si>
-    <t xml:space="preserve">ARF_rate_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_rate_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_rate_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_rate_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_rate_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_rate_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_rate_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_rate_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_rate_65_plus</t>
+    <t xml:space="preserve">ARF_AAMR_25_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_25_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_25_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_65_plus</t>
   </si>
   <si>
     <t xml:space="preserve">ARF_deaths_Female</t>
@@ -738,46 +790,226 @@
     <t xml:space="preserve">ARF_Sepsis_deaths_Overall</t>
   </si>
   <si>
-    <t xml:space="preserve">ARF_rate_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_rate_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_rate_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_rate_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_rate_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_rate_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_rate_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_rate_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_rate_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF (crude rate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis (crude rate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF &amp; Sepsis (crude rate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis among ARF (③/①)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF among Sepsis (③/②)</t>
+    <t xml:space="preserve">ARF_AAMR_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF (AAMR 25–85+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis (AAMR 25–85+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF &amp; Sepsis (AAMR 25–85+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis among ARF ((3)/(1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF among Sepsis ((3)/(2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF &amp; sepsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total death (25–85+), n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,268,393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,217,199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">745,002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crude mortality rate (25–85+), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAMR (25–85+), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male AAMR (25–85+), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female AAMR (25–85+), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Age ≥65 AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Age 45–64 AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Age 25–44 AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race and ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  American Indian or Alaska Native AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Asian AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Black or African American AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Native Hawaiian or Other Pacific Islander AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  White AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  More than one race AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1378,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>60757</v>
@@ -1184,10 +1419,13 @@
       <c r="L2" t="n">
         <v>30.54</v>
       </c>
+      <c r="M2" t="n">
+        <v>28.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>61358</v>
@@ -1222,10 +1460,13 @@
       <c r="L3" t="n">
         <v>30.45</v>
       </c>
+      <c r="M3" t="n">
+        <v>27.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>60136</v>
@@ -1260,10 +1501,13 @@
       <c r="L4" t="n">
         <v>29.58</v>
       </c>
+      <c r="M4" t="n">
+        <v>26.71</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>61138</v>
@@ -1298,10 +1542,13 @@
       <c r="L5" t="n">
         <v>29.27</v>
       </c>
+      <c r="M5" t="n">
+        <v>26.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>61123</v>
@@ -1336,10 +1583,13 @@
       <c r="L6" t="n">
         <v>29.13</v>
       </c>
+      <c r="M6" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>62482</v>
@@ -1374,10 +1624,13 @@
       <c r="L7" t="n">
         <v>29.41</v>
       </c>
+      <c r="M7" t="n">
+        <v>25.92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>62146</v>
@@ -1412,10 +1665,13 @@
       <c r="L8" t="n">
         <v>28.93</v>
       </c>
+      <c r="M8" t="n">
+        <v>25.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>62815</v>
@@ -1450,10 +1706,13 @@
       <c r="L9" t="n">
         <v>28.89</v>
       </c>
+      <c r="M9" t="n">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>62927</v>
@@ -1488,10 +1747,13 @@
       <c r="L10" t="n">
         <v>28.67</v>
       </c>
+      <c r="M10" t="n">
+        <v>24.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>61562</v>
@@ -1526,10 +1788,13 @@
       <c r="L11" t="n">
         <v>28.1</v>
       </c>
+      <c r="M11" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>82133</v>
@@ -1564,10 +1829,13 @@
       <c r="L12" t="n">
         <v>36.67</v>
       </c>
+      <c r="M12" t="n">
+        <v>30.86</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>117868</v>
@@ -1602,10 +1870,13 @@
       <c r="L13" t="n">
         <v>51.84</v>
       </c>
+      <c r="M13" t="n">
+        <v>45.28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>129017</v>
@@ -1640,10 +1911,13 @@
       <c r="L14" t="n">
         <v>56.66</v>
       </c>
+      <c r="M14" t="n">
+        <v>47.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>113467</v>
@@ -1678,10 +1952,13 @@
       <c r="L15" t="n">
         <v>49.58</v>
       </c>
+      <c r="M15" t="n">
+        <v>41.55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>110623</v>
@@ -1716,10 +1993,13 @@
       <c r="L16" t="n">
         <v>47.84</v>
       </c>
+      <c r="M16" t="n">
+        <v>40.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>98841</v>
@@ -1754,10 +2034,13 @@
       <c r="L17" t="n">
         <v>42.87</v>
       </c>
+      <c r="M17" t="n">
+        <v>36.16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>1268393</v>
@@ -1791,6 +2074,9 @@
       </c>
       <c r="L18" t="n">
         <v>36.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>31.73</v>
       </c>
     </row>
   </sheetData>
@@ -1812,575 +2098,575 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>29.43</v>
+        <v>23.71</v>
       </c>
       <c r="C2" t="n">
-        <v>31.72</v>
+        <v>35.26</v>
       </c>
       <c r="D2" t="n">
-        <v>30.54</v>
+        <v>28.44</v>
       </c>
       <c r="E2" t="n">
-        <v>77.84</v>
+        <v>66.24</v>
       </c>
       <c r="F2" t="n">
-        <v>76.89</v>
+        <v>83.94</v>
       </c>
       <c r="G2" t="n">
-        <v>77.38</v>
+        <v>73.67</v>
       </c>
       <c r="H2" t="n">
-        <v>7.76</v>
+        <v>6.31</v>
       </c>
       <c r="I2" t="n">
-        <v>8.06</v>
+        <v>8.61</v>
       </c>
       <c r="J2" t="n">
-        <v>7.9</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>29.36</v>
+        <v>23.4</v>
       </c>
       <c r="C3" t="n">
-        <v>31.59</v>
+        <v>34.4</v>
       </c>
       <c r="D3" t="n">
-        <v>30.45</v>
+        <v>27.95</v>
       </c>
       <c r="E3" t="n">
-        <v>79.82</v>
+        <v>67.22</v>
       </c>
       <c r="F3" t="n">
-        <v>78.03</v>
+        <v>83.62</v>
       </c>
       <c r="G3" t="n">
-        <v>78.96</v>
+        <v>74.15</v>
       </c>
       <c r="H3" t="n">
-        <v>7.79</v>
+        <v>6.35</v>
       </c>
       <c r="I3" t="n">
-        <v>8.23</v>
+        <v>8.67</v>
       </c>
       <c r="J3" t="n">
-        <v>8.01</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>28.45</v>
+        <v>22.34</v>
       </c>
       <c r="C4" t="n">
-        <v>30.78</v>
+        <v>32.8</v>
       </c>
       <c r="D4" t="n">
-        <v>29.58</v>
+        <v>26.71</v>
       </c>
       <c r="E4" t="n">
-        <v>78.29</v>
+        <v>65.29</v>
       </c>
       <c r="F4" t="n">
-        <v>78.29</v>
+        <v>82.42</v>
       </c>
       <c r="G4" t="n">
-        <v>78.29</v>
+        <v>72.54</v>
       </c>
       <c r="H4" t="n">
-        <v>7.71</v>
+        <v>6.01</v>
       </c>
       <c r="I4" t="n">
-        <v>7.97</v>
+        <v>8.19</v>
       </c>
       <c r="J4" t="n">
-        <v>7.84</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>27.63</v>
+        <v>22.28</v>
       </c>
       <c r="C5" t="n">
-        <v>31.05</v>
+        <v>32.38</v>
       </c>
       <c r="D5" t="n">
-        <v>29.27</v>
+        <v>26.53</v>
       </c>
       <c r="E5" t="n">
-        <v>81.43</v>
+        <v>67.38</v>
       </c>
       <c r="F5" t="n">
-        <v>81.61</v>
+        <v>84.38</v>
       </c>
       <c r="G5" t="n">
-        <v>81.52</v>
+        <v>74.64</v>
       </c>
       <c r="H5" t="n">
-        <v>7.96</v>
+        <v>6.36</v>
       </c>
       <c r="I5" t="n">
-        <v>8.17</v>
+        <v>8.31</v>
       </c>
       <c r="J5" t="n">
-        <v>8.06</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>27.49</v>
+        <v>21.72</v>
       </c>
       <c r="C6" t="n">
-        <v>30.89</v>
+        <v>31.67</v>
       </c>
       <c r="D6" t="n">
-        <v>29.13</v>
+        <v>25.91</v>
       </c>
       <c r="E6" t="n">
-        <v>83.81</v>
+        <v>68.92</v>
       </c>
       <c r="F6" t="n">
-        <v>85.24</v>
+        <v>86.74</v>
       </c>
       <c r="G6" t="n">
-        <v>84.5</v>
+        <v>76.53</v>
       </c>
       <c r="H6" t="n">
-        <v>7.92</v>
+        <v>6.33</v>
       </c>
       <c r="I6" t="n">
-        <v>8.61</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>27.61</v>
+        <v>21.69</v>
       </c>
       <c r="C7" t="n">
-        <v>31.34</v>
+        <v>31.61</v>
       </c>
       <c r="D7" t="n">
-        <v>29.41</v>
+        <v>25.92</v>
       </c>
       <c r="E7" t="n">
-        <v>88.17</v>
+        <v>71.89</v>
       </c>
       <c r="F7" t="n">
-        <v>90.7</v>
+        <v>91.26</v>
       </c>
       <c r="G7" t="n">
-        <v>89.39</v>
+        <v>80.2</v>
       </c>
       <c r="H7" t="n">
-        <v>8.35</v>
+        <v>6.65</v>
       </c>
       <c r="I7" t="n">
-        <v>9.02</v>
+        <v>8.8</v>
       </c>
       <c r="J7" t="n">
-        <v>8.67</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>26.84</v>
+        <v>20.99</v>
       </c>
       <c r="C8" t="n">
-        <v>31.17</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>28.93</v>
+        <v>25.28</v>
       </c>
       <c r="E8" t="n">
-        <v>88.03</v>
+        <v>71.3</v>
       </c>
       <c r="F8" t="n">
-        <v>91.68</v>
+        <v>90.86</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79</v>
+        <v>79.72</v>
       </c>
       <c r="H8" t="n">
-        <v>8.02</v>
+        <v>6.32</v>
       </c>
       <c r="I8" t="n">
-        <v>8.94</v>
+        <v>8.67</v>
       </c>
       <c r="J8" t="n">
-        <v>8.47</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>26.51</v>
+        <v>20.61</v>
       </c>
       <c r="C9" t="n">
-        <v>31.42</v>
+        <v>30.73</v>
       </c>
       <c r="D9" t="n">
-        <v>28.89</v>
+        <v>24.98</v>
       </c>
       <c r="E9" t="n">
-        <v>89.24</v>
+        <v>71.65</v>
       </c>
       <c r="F9" t="n">
-        <v>93.46</v>
+        <v>91.6</v>
       </c>
       <c r="G9" t="n">
-        <v>91.28</v>
+        <v>80.23</v>
       </c>
       <c r="H9" t="n">
-        <v>8.07</v>
+        <v>6.3</v>
       </c>
       <c r="I9" t="n">
-        <v>9.08</v>
+        <v>8.62</v>
       </c>
       <c r="J9" t="n">
-        <v>8.56</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>26.27</v>
+        <v>20.12</v>
       </c>
       <c r="C10" t="n">
-        <v>31.18</v>
+        <v>30.25</v>
       </c>
       <c r="D10" t="n">
-        <v>28.67</v>
+        <v>24.52</v>
       </c>
       <c r="E10" t="n">
-        <v>89.25</v>
+        <v>70.54</v>
       </c>
       <c r="F10" t="n">
-        <v>94.64</v>
+        <v>91.16</v>
       </c>
       <c r="G10" t="n">
-        <v>91.87</v>
+        <v>79.44</v>
       </c>
       <c r="H10" t="n">
-        <v>8.06</v>
+        <v>6.22</v>
       </c>
       <c r="I10" t="n">
-        <v>9.26</v>
+        <v>8.56</v>
       </c>
       <c r="J10" t="n">
-        <v>8.64</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>25.79</v>
+        <v>19.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.49</v>
+        <v>29.01</v>
       </c>
       <c r="D11" t="n">
-        <v>28.1</v>
+        <v>23.6</v>
       </c>
       <c r="E11" t="n">
-        <v>85.91</v>
+        <v>67.37</v>
       </c>
       <c r="F11" t="n">
-        <v>92.29</v>
+        <v>87.59</v>
       </c>
       <c r="G11" t="n">
-        <v>89.01</v>
+        <v>76.13</v>
       </c>
       <c r="H11" t="n">
-        <v>7.69</v>
+        <v>5.88</v>
       </c>
       <c r="I11" t="n">
-        <v>8.81</v>
+        <v>8.04</v>
       </c>
       <c r="J11" t="n">
-        <v>8.23</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>31.93</v>
+        <v>24.34</v>
       </c>
       <c r="C12" t="n">
-        <v>41.6</v>
+        <v>39.06</v>
       </c>
       <c r="D12" t="n">
-        <v>36.67</v>
+        <v>30.86</v>
       </c>
       <c r="E12" t="n">
-        <v>99.57</v>
+        <v>78.26</v>
       </c>
       <c r="F12" t="n">
-        <v>113.35</v>
+        <v>105.63</v>
       </c>
       <c r="G12" t="n">
-        <v>106.24</v>
+        <v>90.31</v>
       </c>
       <c r="H12" t="n">
-        <v>9.6</v>
+        <v>7.31</v>
       </c>
       <c r="I12" t="n">
-        <v>12.24</v>
+        <v>11.01</v>
       </c>
       <c r="J12" t="n">
-        <v>10.89</v>
+        <v>8.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>44.04</v>
+        <v>35.45</v>
       </c>
       <c r="C13" t="n">
-        <v>59.96</v>
+        <v>57.4</v>
       </c>
       <c r="D13" t="n">
-        <v>51.84</v>
+        <v>45.28</v>
       </c>
       <c r="E13" t="n">
-        <v>106.04</v>
+        <v>86.01</v>
       </c>
       <c r="F13" t="n">
-        <v>121.71</v>
+        <v>115.58</v>
       </c>
       <c r="G13" t="n">
-        <v>113.69</v>
+        <v>99.15</v>
       </c>
       <c r="H13" t="n">
-        <v>14.21</v>
+        <v>11.17</v>
       </c>
       <c r="I13" t="n">
-        <v>18.04</v>
+        <v>16.79</v>
       </c>
       <c r="J13" t="n">
-        <v>16.11</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>50.67</v>
+        <v>38.55</v>
       </c>
       <c r="C14" t="n">
-        <v>62.84</v>
+        <v>59.31</v>
       </c>
       <c r="D14" t="n">
-        <v>56.66</v>
+        <v>47.56</v>
       </c>
       <c r="E14" t="n">
-        <v>100.71</v>
+        <v>78.25</v>
       </c>
       <c r="F14" t="n">
-        <v>110.56</v>
+        <v>103.19</v>
       </c>
       <c r="G14" t="n">
-        <v>105.52</v>
+        <v>88.99</v>
       </c>
       <c r="H14" t="n">
-        <v>16.75</v>
+        <v>12.56</v>
       </c>
       <c r="I14" t="n">
-        <v>19.08</v>
+        <v>17.55</v>
       </c>
       <c r="J14" t="n">
-        <v>17.91</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>45.36</v>
+        <v>34.58</v>
       </c>
       <c r="C15" t="n">
-        <v>53.91</v>
+        <v>50.39</v>
       </c>
       <c r="D15" t="n">
-        <v>49.58</v>
+        <v>41.55</v>
       </c>
       <c r="E15" t="n">
-        <v>92.48</v>
+        <v>72.32</v>
       </c>
       <c r="F15" t="n">
-        <v>101.2</v>
+        <v>93.55</v>
       </c>
       <c r="G15" t="n">
-        <v>96.73</v>
+        <v>81.6</v>
       </c>
       <c r="H15" t="n">
-        <v>15.38</v>
+        <v>11.6</v>
       </c>
       <c r="I15" t="n">
-        <v>17.15</v>
+        <v>15.36</v>
       </c>
       <c r="J15" t="n">
-        <v>16.25</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>43.33</v>
+        <v>33.79</v>
       </c>
       <c r="C16" t="n">
-        <v>52.57</v>
+        <v>49.15</v>
       </c>
       <c r="D16" t="n">
-        <v>47.84</v>
+        <v>40.52</v>
       </c>
       <c r="E16" t="n">
-        <v>91.27</v>
+        <v>71.29</v>
       </c>
       <c r="F16" t="n">
-        <v>98.82</v>
+        <v>91.45</v>
       </c>
       <c r="G16" t="n">
-        <v>94.95</v>
+        <v>80.05</v>
       </c>
       <c r="H16" t="n">
-        <v>14.78</v>
+        <v>11.27</v>
       </c>
       <c r="I16" t="n">
-        <v>16.37</v>
+        <v>14.77</v>
       </c>
       <c r="J16" t="n">
-        <v>15.55</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>39.01</v>
+        <v>30.19</v>
       </c>
       <c r="C17" t="n">
-        <v>46.9</v>
+        <v>43.84</v>
       </c>
       <c r="D17" t="n">
-        <v>42.87</v>
+        <v>36.16</v>
       </c>
       <c r="E17" t="n">
-        <v>81.85</v>
+        <v>63.88</v>
       </c>
       <c r="F17" t="n">
-        <v>89.78</v>
+        <v>83.16</v>
       </c>
       <c r="G17" t="n">
-        <v>85.72</v>
+        <v>72.23</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09</v>
+        <v>10.01</v>
       </c>
       <c r="I17" t="n">
-        <v>14.7</v>
+        <v>13.4</v>
       </c>
       <c r="J17" t="n">
-        <v>13.88</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>33.34</v>
+        <v>26.08</v>
       </c>
       <c r="C18" t="n">
-        <v>39.82</v>
+        <v>39.16</v>
       </c>
       <c r="D18" t="n">
-        <v>36.5</v>
+        <v>31.73</v>
       </c>
       <c r="E18" t="n">
-        <v>88.56</v>
+        <v>71.26</v>
       </c>
       <c r="F18" t="n">
-        <v>94.09</v>
+        <v>92.03</v>
       </c>
       <c r="G18" t="n">
-        <v>91.25</v>
+        <v>80.22</v>
       </c>
       <c r="H18" t="n">
-        <v>10.29</v>
+        <v>8.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11.66</v>
+        <v>11.09</v>
       </c>
       <c r="J18" t="n">
-        <v>10.96</v>
+        <v>9.36</v>
       </c>
     </row>
   </sheetData>
@@ -2402,33 +2688,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>30.54</v>
+        <v>28.44</v>
       </c>
       <c r="C2" t="n">
-        <v>77.38</v>
+        <v>73.67</v>
       </c>
       <c r="D2" t="n">
-        <v>7.9</v>
+        <v>7.27</v>
       </c>
       <c r="E2" t="n">
         <v>0.26</v>
@@ -2439,16 +2725,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>30.45</v>
+        <v>27.95</v>
       </c>
       <c r="C3" t="n">
-        <v>78.96</v>
+        <v>74.15</v>
       </c>
       <c r="D3" t="n">
-        <v>8.01</v>
+        <v>7.32</v>
       </c>
       <c r="E3" t="n">
         <v>0.26</v>
@@ -2459,19 +2745,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>29.58</v>
+        <v>26.71</v>
       </c>
       <c r="C4" t="n">
-        <v>78.29</v>
+        <v>72.54</v>
       </c>
       <c r="D4" t="n">
-        <v>7.84</v>
+        <v>6.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2479,19 +2765,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>29.27</v>
+        <v>26.53</v>
       </c>
       <c r="C5" t="n">
-        <v>81.52</v>
+        <v>74.64</v>
       </c>
       <c r="D5" t="n">
-        <v>8.06</v>
+        <v>7.19</v>
       </c>
       <c r="E5" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
@@ -2499,56 +2785,56 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>29.13</v>
+        <v>25.91</v>
       </c>
       <c r="C6" t="n">
-        <v>84.5</v>
+        <v>76.53</v>
       </c>
       <c r="D6" t="n">
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>29.41</v>
+        <v>25.92</v>
       </c>
       <c r="C7" t="n">
-        <v>89.39</v>
+        <v>80.2</v>
       </c>
       <c r="D7" t="n">
-        <v>8.67</v>
+        <v>7.56</v>
       </c>
       <c r="E7" t="n">
         <v>0.29</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>28.93</v>
+        <v>25.28</v>
       </c>
       <c r="C8" t="n">
-        <v>89.79</v>
+        <v>79.72</v>
       </c>
       <c r="D8" t="n">
-        <v>8.47</v>
+        <v>7.33</v>
       </c>
       <c r="E8" t="n">
         <v>0.29</v>
@@ -2559,19 +2845,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>28.89</v>
+        <v>24.98</v>
       </c>
       <c r="C9" t="n">
-        <v>91.28</v>
+        <v>80.23</v>
       </c>
       <c r="D9" t="n">
-        <v>8.56</v>
+        <v>7.3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F9" t="n">
         <v>0.09</v>
@@ -2579,16 +2865,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>28.67</v>
+        <v>24.52</v>
       </c>
       <c r="C10" t="n">
-        <v>91.87</v>
+        <v>79.44</v>
       </c>
       <c r="D10" t="n">
-        <v>8.64</v>
+        <v>7.24</v>
       </c>
       <c r="E10" t="n">
         <v>0.3</v>
@@ -2599,16 +2885,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1</v>
+        <v>23.6</v>
       </c>
       <c r="C11" t="n">
-        <v>89.01</v>
+        <v>76.13</v>
       </c>
       <c r="D11" t="n">
-        <v>8.23</v>
+        <v>6.82</v>
       </c>
       <c r="E11" t="n">
         <v>0.29</v>
@@ -2619,19 +2905,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>36.67</v>
+        <v>30.86</v>
       </c>
       <c r="C12" t="n">
-        <v>106.24</v>
+        <v>90.31</v>
       </c>
       <c r="D12" t="n">
-        <v>10.89</v>
+        <v>8.96</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F12" t="n">
         <v>0.1</v>
@@ -2639,19 +2925,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>51.84</v>
+        <v>45.28</v>
       </c>
       <c r="C13" t="n">
-        <v>113.69</v>
+        <v>99.15</v>
       </c>
       <c r="D13" t="n">
-        <v>16.11</v>
+        <v>13.72</v>
       </c>
       <c r="E13" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F13" t="n">
         <v>0.14</v>
@@ -2659,19 +2945,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>56.66</v>
+        <v>47.56</v>
       </c>
       <c r="C14" t="n">
-        <v>105.52</v>
+        <v>88.99</v>
       </c>
       <c r="D14" t="n">
-        <v>17.91</v>
+        <v>14.73</v>
       </c>
       <c r="E14" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F14" t="n">
         <v>0.17</v>
@@ -2679,39 +2965,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>49.58</v>
+        <v>41.55</v>
       </c>
       <c r="C15" t="n">
-        <v>96.73</v>
+        <v>81.6</v>
       </c>
       <c r="D15" t="n">
-        <v>16.25</v>
+        <v>13.26</v>
       </c>
       <c r="E15" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F15" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>47.84</v>
+        <v>40.52</v>
       </c>
       <c r="C16" t="n">
-        <v>94.95</v>
+        <v>80.05</v>
       </c>
       <c r="D16" t="n">
-        <v>15.55</v>
+        <v>12.78</v>
       </c>
       <c r="E16" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F16" t="n">
         <v>0.16</v>
@@ -2719,16 +3005,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>42.87</v>
+        <v>36.16</v>
       </c>
       <c r="C17" t="n">
-        <v>85.72</v>
+        <v>72.23</v>
       </c>
       <c r="D17" t="n">
-        <v>13.88</v>
+        <v>11.48</v>
       </c>
       <c r="E17" t="n">
         <v>0.32</v>
@@ -2739,22 +3025,262 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>36.5</v>
+        <v>31.73</v>
       </c>
       <c r="C18" t="n">
-        <v>91.25</v>
+        <v>80.22</v>
       </c>
       <c r="D18" t="n">
-        <v>10.96</v>
+        <v>9.36</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F18" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2808,10 +3334,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>157780</v>
@@ -2846,10 +3375,13 @@
       <c r="L2" t="n">
         <v>77.38</v>
       </c>
+      <c r="M2" t="n">
+        <v>73.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>163118</v>
@@ -2884,10 +3416,13 @@
       <c r="L3" t="n">
         <v>78.96</v>
       </c>
+      <c r="M3" t="n">
+        <v>74.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>163495</v>
@@ -2922,10 +3457,13 @@
       <c r="L4" t="n">
         <v>78.29</v>
       </c>
+      <c r="M4" t="n">
+        <v>72.54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>172068</v>
@@ -2960,10 +3498,13 @@
       <c r="L5" t="n">
         <v>81.52</v>
       </c>
+      <c r="M5" t="n">
+        <v>74.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>180677</v>
@@ -2998,10 +3539,13 @@
       <c r="L6" t="n">
         <v>84.5</v>
       </c>
+      <c r="M6" t="n">
+        <v>76.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>193580</v>
@@ -3036,10 +3580,13 @@
       <c r="L7" t="n">
         <v>89.39</v>
       </c>
+      <c r="M7" t="n">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>196328</v>
@@ -3074,10 +3621,13 @@
       <c r="L8" t="n">
         <v>89.79</v>
       </c>
+      <c r="M8" t="n">
+        <v>79.72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>202135</v>
@@ -3112,10 +3662,13 @@
       <c r="L9" t="n">
         <v>91.28</v>
       </c>
+      <c r="M9" t="n">
+        <v>80.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>204379</v>
@@ -3150,10 +3703,13 @@
       <c r="L10" t="n">
         <v>91.87</v>
       </c>
+      <c r="M10" t="n">
+        <v>79.44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>199610</v>
@@ -3188,10 +3744,13 @@
       <c r="L11" t="n">
         <v>89.01</v>
       </c>
+      <c r="M11" t="n">
+        <v>76.13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>240713</v>
@@ -3226,10 +3785,13 @@
       <c r="L12" t="n">
         <v>106.24</v>
       </c>
+      <c r="M12" t="n">
+        <v>90.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>259405</v>
@@ -3264,10 +3826,13 @@
       <c r="L13" t="n">
         <v>113.69</v>
       </c>
+      <c r="M13" t="n">
+        <v>99.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>242039</v>
@@ -3302,10 +3867,13 @@
       <c r="L14" t="n">
         <v>105.52</v>
       </c>
+      <c r="M14" t="n">
+        <v>88.99</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>223826</v>
@@ -3340,10 +3908,13 @@
       <c r="L15" t="n">
         <v>96.73</v>
       </c>
+      <c r="M15" t="n">
+        <v>81.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>219706</v>
@@ -3378,10 +3949,13 @@
       <c r="L16" t="n">
         <v>94.95</v>
       </c>
+      <c r="M16" t="n">
+        <v>80.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>198340</v>
@@ -3416,10 +3990,13 @@
       <c r="L17" t="n">
         <v>85.72</v>
       </c>
+      <c r="M17" t="n">
+        <v>72.23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>3217199</v>
@@ -3453,6 +4030,9 @@
       </c>
       <c r="L18" t="n">
         <v>91.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>80.22</v>
       </c>
     </row>
   </sheetData>
@@ -3506,10 +4086,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>15489</v>
@@ -3544,10 +4127,13 @@
       <c r="L2" t="n">
         <v>7.92</v>
       </c>
+      <c r="M2" t="n">
+        <v>7.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>16026</v>
@@ -3582,10 +4168,13 @@
       <c r="L3" t="n">
         <v>8.03</v>
       </c>
+      <c r="M3" t="n">
+        <v>7.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>15598</v>
@@ -3620,10 +4209,13 @@
       <c r="L4" t="n">
         <v>7.86</v>
       </c>
+      <c r="M4" t="n">
+        <v>6.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>16471</v>
@@ -3658,10 +4250,13 @@
       <c r="L5" t="n">
         <v>8.08</v>
       </c>
+      <c r="M5" t="n">
+        <v>7.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>17092</v>
@@ -3696,10 +4291,13 @@
       <c r="L6" t="n">
         <v>8.28</v>
       </c>
+      <c r="M6" t="n">
+        <v>7.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>18196</v>
@@ -3734,10 +4332,13 @@
       <c r="L7" t="n">
         <v>8.71</v>
       </c>
+      <c r="M7" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>18069</v>
@@ -3772,10 +4373,13 @@
       <c r="L8" t="n">
         <v>8.52</v>
       </c>
+      <c r="M8" t="n">
+        <v>7.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>18407</v>
@@ -3810,10 +4414,13 @@
       <c r="L9" t="n">
         <v>8.62</v>
       </c>
+      <c r="M9" t="n">
+        <v>7.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>18458</v>
@@ -3848,10 +4455,13 @@
       <c r="L10" t="n">
         <v>8.7</v>
       </c>
+      <c r="M10" t="n">
+        <v>7.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>17736</v>
@@ -3886,10 +4496,13 @@
       <c r="L11" t="n">
         <v>8.29</v>
       </c>
+      <c r="M11" t="n">
+        <v>6.87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>23813</v>
@@ -3924,10 +4537,13 @@
       <c r="L12" t="n">
         <v>10.97</v>
       </c>
+      <c r="M12" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>36063</v>
@@ -3962,10 +4578,13 @@
       <c r="L13" t="n">
         <v>16.22</v>
       </c>
+      <c r="M13" t="n">
+        <v>13.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>40161</v>
@@ -4000,10 +4619,13 @@
       <c r="L14" t="n">
         <v>18.03</v>
       </c>
+      <c r="M14" t="n">
+        <v>14.83</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>36425</v>
@@ -4038,10 +4660,13 @@
       <c r="L15" t="n">
         <v>16.36</v>
       </c>
+      <c r="M15" t="n">
+        <v>13.35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>35173</v>
@@ -4076,10 +4701,13 @@
       <c r="L16" t="n">
         <v>15.67</v>
       </c>
+      <c r="M16" t="n">
+        <v>12.88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>31601</v>
@@ -4114,10 +4742,13 @@
       <c r="L17" t="n">
         <v>13.98</v>
       </c>
+      <c r="M17" t="n">
+        <v>11.56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>374778</v>
@@ -4151,6 +4782,9 @@
       </c>
       <c r="L18" t="n">
         <v>11.02</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.41</v>
       </c>
     </row>
   </sheetData>
@@ -4169,36 +4803,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -4206,38 +4840,38 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -4420,6 +5054,23 @@
       </c>
       <c r="E15" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4438,36 +5089,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -4475,50 +5126,50 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -4526,16 +5177,16 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
@@ -4543,16 +5194,16 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -4560,16 +5211,16 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
@@ -4577,16 +5228,16 @@
         <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -4594,16 +5245,16 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
@@ -4611,16 +5262,16 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
@@ -4628,16 +5279,16 @@
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -4645,16 +5296,16 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -4662,16 +5313,16 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -4679,16 +5330,33 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4707,36 +5375,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -4744,50 +5412,50 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -4795,16 +5463,16 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -4812,16 +5480,16 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -4829,16 +5497,16 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
@@ -4846,16 +5514,16 @@
         <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -4863,16 +5531,16 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11">
@@ -4880,16 +5548,16 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
@@ -4897,16 +5565,16 @@
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -4914,16 +5582,16 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14">
@@ -4931,16 +5599,16 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15">
@@ -4948,16 +5616,33 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4979,36 +5664,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>1314</v>
@@ -5040,7 +5725,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>1339</v>
@@ -5072,7 +5757,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>1234</v>
@@ -5104,7 +5789,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>1424</v>
@@ -5136,7 +5821,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>1467</v>
@@ -5168,7 +5853,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>1511</v>
@@ -5200,7 +5885,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>1669</v>
@@ -5232,7 +5917,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>1665</v>
@@ -5264,7 +5949,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>1780</v>
@@ -5296,7 +5981,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>1834</v>
@@ -5328,7 +6013,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>2772</v>
@@ -5360,7 +6045,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>5076</v>
@@ -5392,7 +6077,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>4552</v>
@@ -5424,7 +6109,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>4026</v>
@@ -5456,7 +6141,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>3905</v>
@@ -5488,7 +6173,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>3346</v>
@@ -5520,7 +6205,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>38914</v>
@@ -5569,575 +6254,575 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="I1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="C2" t="n">
-        <v>12.11</v>
+        <v>11.52</v>
       </c>
       <c r="D2" t="n">
-        <v>123.11</v>
+        <v>121.14</v>
       </c>
       <c r="E2" t="n">
-        <v>6.56</v>
+        <v>6.8</v>
       </c>
       <c r="F2" t="n">
-        <v>42.48</v>
+        <v>40.47</v>
       </c>
       <c r="G2" t="n">
-        <v>292.49</v>
+        <v>289.77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.87</v>
+        <v>3.67</v>
       </c>
       <c r="J2" t="n">
-        <v>29.72</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="C3" t="n">
-        <v>12.21</v>
+        <v>11.49</v>
       </c>
       <c r="D3" t="n">
-        <v>120.58</v>
+        <v>118.58</v>
       </c>
       <c r="E3" t="n">
-        <v>6.8</v>
+        <v>7.09</v>
       </c>
       <c r="F3" t="n">
-        <v>43.97</v>
+        <v>41.52</v>
       </c>
       <c r="G3" t="n">
-        <v>292.59</v>
+        <v>289.71</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="I3" t="n">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
       <c r="J3" t="n">
-        <v>29.64</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="C4" t="n">
-        <v>12.38</v>
+        <v>11.6</v>
       </c>
       <c r="D4" t="n">
-        <v>112.74</v>
+        <v>112.38</v>
       </c>
       <c r="E4" t="n">
-        <v>6.56</v>
+        <v>6.86</v>
       </c>
       <c r="F4" t="n">
-        <v>43.79</v>
+        <v>41.04</v>
       </c>
       <c r="G4" t="n">
-        <v>282.24</v>
+        <v>282.87</v>
       </c>
       <c r="H4" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="I4" t="n">
-        <v>4.02</v>
+        <v>3.76</v>
       </c>
       <c r="J4" t="n">
-        <v>27.4</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="C5" t="n">
-        <v>12.76</v>
+        <v>11.87</v>
       </c>
       <c r="D5" t="n">
-        <v>109.87</v>
+        <v>110.57</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9</v>
+        <v>7.23</v>
       </c>
       <c r="F5" t="n">
-        <v>45.82</v>
+        <v>42.69</v>
       </c>
       <c r="G5" t="n">
-        <v>286.88</v>
+        <v>289.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I5" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="J5" t="n">
-        <v>27.61</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="C6" t="n">
-        <v>13.01</v>
+        <v>12.03</v>
       </c>
       <c r="D6" t="n">
-        <v>105.5</v>
+        <v>106.96</v>
       </c>
       <c r="E6" t="n">
-        <v>7.13</v>
+        <v>7.52</v>
       </c>
       <c r="F6" t="n">
-        <v>48.51</v>
+        <v>44.96</v>
       </c>
       <c r="G6" t="n">
-        <v>290.12</v>
+        <v>294.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.64</v>
+        <v>4.29</v>
       </c>
       <c r="J6" t="n">
-        <v>27.45</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="C7" t="n">
-        <v>13.2</v>
+        <v>12.15</v>
       </c>
       <c r="D7" t="n">
-        <v>104.42</v>
+        <v>106.67</v>
       </c>
       <c r="E7" t="n">
-        <v>7.36</v>
+        <v>7.75</v>
       </c>
       <c r="F7" t="n">
-        <v>50.27</v>
+        <v>46.32</v>
       </c>
       <c r="G7" t="n">
-        <v>303.79</v>
+        <v>310.65</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I7" t="n">
-        <v>4.82</v>
+        <v>4.41</v>
       </c>
       <c r="J7" t="n">
-        <v>28.56</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="C8" t="n">
-        <v>13.69</v>
+        <v>12.5</v>
       </c>
       <c r="D8" t="n">
-        <v>99.39</v>
+        <v>102.36</v>
       </c>
       <c r="E8" t="n">
-        <v>7.83</v>
+        <v>8.28</v>
       </c>
       <c r="F8" t="n">
-        <v>51.42</v>
+        <v>47.05</v>
       </c>
       <c r="G8" t="n">
-        <v>297.18</v>
+        <v>305.68</v>
       </c>
       <c r="H8" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="I8" t="n">
-        <v>4.92</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>26.92</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="C9" t="n">
-        <v>13.97</v>
+        <v>12.72</v>
       </c>
       <c r="D9" t="n">
-        <v>97.06</v>
+        <v>100.48</v>
       </c>
       <c r="E9" t="n">
-        <v>7.85</v>
+        <v>8.3</v>
       </c>
       <c r="F9" t="n">
-        <v>51.42</v>
+        <v>46.77</v>
       </c>
       <c r="G9" t="n">
-        <v>298.83</v>
+        <v>308.74</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.87</v>
+        <v>4.44</v>
       </c>
       <c r="J9" t="n">
-        <v>26.7</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="C10" t="n">
-        <v>14.25</v>
+        <v>12.96</v>
       </c>
       <c r="D10" t="n">
-        <v>93.88</v>
+        <v>97.39</v>
       </c>
       <c r="E10" t="n">
-        <v>7.95</v>
+        <v>8.39</v>
       </c>
       <c r="F10" t="n">
-        <v>52.14</v>
+        <v>47.27</v>
       </c>
       <c r="G10" t="n">
-        <v>293.3</v>
+        <v>303.58</v>
       </c>
       <c r="H10" t="n">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="I10" t="n">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>26.13</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="C11" t="n">
-        <v>14.17</v>
+        <v>12.83</v>
       </c>
       <c r="D11" t="n">
-        <v>88.69</v>
+        <v>92.57</v>
       </c>
       <c r="E11" t="n">
-        <v>8.02</v>
+        <v>8.43</v>
       </c>
       <c r="F11" t="n">
-        <v>51.21</v>
+        <v>46.16</v>
       </c>
       <c r="G11" t="n">
-        <v>277.43</v>
+        <v>288.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="I11" t="n">
-        <v>4.89</v>
+        <v>4.43</v>
       </c>
       <c r="J11" t="n">
-        <v>24.03</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="C12" t="n">
-        <v>20.27</v>
+        <v>18.33</v>
       </c>
       <c r="D12" t="n">
-        <v>112.48</v>
+        <v>117.69</v>
       </c>
       <c r="E12" t="n">
-        <v>10.22</v>
+        <v>10.84</v>
       </c>
       <c r="F12" t="n">
-        <v>65.39</v>
+        <v>59.1</v>
       </c>
       <c r="G12" t="n">
-        <v>319.05</v>
+        <v>332.62</v>
       </c>
       <c r="H12" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="I12" t="n">
-        <v>7.06</v>
+        <v>6.36</v>
       </c>
       <c r="J12" t="n">
-        <v>30.63</v>
+        <v>31.89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>5.76</v>
+        <v>6.04</v>
       </c>
       <c r="C13" t="n">
-        <v>33.32</v>
+        <v>30.46</v>
       </c>
       <c r="D13" t="n">
-        <v>152.16</v>
+        <v>163.9</v>
       </c>
       <c r="E13" t="n">
-        <v>13.13</v>
+        <v>13.83</v>
       </c>
       <c r="F13" t="n">
-        <v>75.36</v>
+        <v>68.39</v>
       </c>
       <c r="G13" t="n">
-        <v>330.94</v>
+        <v>354.51</v>
       </c>
       <c r="H13" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="I13" t="n">
-        <v>11.56</v>
+        <v>10.53</v>
       </c>
       <c r="J13" t="n">
-        <v>43.9</v>
+        <v>46.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>5.21</v>
+        <v>5.41</v>
       </c>
       <c r="C14" t="n">
-        <v>31.16</v>
+        <v>28.27</v>
       </c>
       <c r="D14" t="n">
-        <v>170.89</v>
+        <v>180.88</v>
       </c>
       <c r="E14" t="n">
-        <v>10.6</v>
+        <v>11.08</v>
       </c>
       <c r="F14" t="n">
-        <v>63.43</v>
+        <v>57.36</v>
       </c>
       <c r="G14" t="n">
-        <v>311.88</v>
+        <v>328.36</v>
       </c>
       <c r="H14" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="I14" t="n">
-        <v>11.03</v>
+        <v>9.99</v>
       </c>
       <c r="J14" t="n">
-        <v>50.71</v>
+        <v>53.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>4.61</v>
+        <v>4.77</v>
       </c>
       <c r="C15" t="n">
-        <v>25.86</v>
+        <v>23.44</v>
       </c>
       <c r="D15" t="n">
-        <v>148.77</v>
+        <v>160.14</v>
       </c>
       <c r="E15" t="n">
-        <v>9.32</v>
+        <v>9.72</v>
       </c>
       <c r="F15" t="n">
-        <v>55.19</v>
+        <v>49.87</v>
       </c>
       <c r="G15" t="n">
-        <v>286.95</v>
+        <v>306.97</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="I15" t="n">
-        <v>9.44</v>
+        <v>8.53</v>
       </c>
       <c r="J15" t="n">
-        <v>45.69</v>
+        <v>48.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>4.36</v>
+        <v>4.56</v>
       </c>
       <c r="C16" t="n">
-        <v>24.75</v>
+        <v>22.47</v>
       </c>
       <c r="D16" t="n">
-        <v>145.74</v>
+        <v>157.08</v>
       </c>
       <c r="E16" t="n">
-        <v>8.72</v>
+        <v>9.12</v>
       </c>
       <c r="F16" t="n">
-        <v>52.14</v>
+        <v>47.17</v>
       </c>
       <c r="G16" t="n">
-        <v>285.14</v>
+        <v>305.19</v>
       </c>
       <c r="H16" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="I16" t="n">
-        <v>8.74</v>
+        <v>7.91</v>
       </c>
       <c r="J16" t="n">
-        <v>44.71</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
       <c r="C17" t="n">
-        <v>21.38</v>
+        <v>19.43</v>
       </c>
       <c r="D17" t="n">
-        <v>131.47</v>
+        <v>141.6</v>
       </c>
       <c r="E17" t="n">
-        <v>7.57</v>
+        <v>7.94</v>
       </c>
       <c r="F17" t="n">
-        <v>45.56</v>
+        <v>41.25</v>
       </c>
       <c r="G17" t="n">
-        <v>259.97</v>
+        <v>278.37</v>
       </c>
       <c r="H17" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="I17" t="n">
-        <v>7.54</v>
+        <v>6.84</v>
       </c>
       <c r="J17" t="n">
-        <v>40.65</v>
+        <v>43.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="C18" t="n">
-        <v>18.01</v>
+        <v>16.52</v>
       </c>
       <c r="D18" t="n">
-        <v>121.17</v>
+        <v>126.13</v>
       </c>
       <c r="E18" t="n">
-        <v>8.32</v>
+        <v>8.74</v>
       </c>
       <c r="F18" t="n">
-        <v>52.39</v>
+        <v>48.01</v>
       </c>
       <c r="G18" t="n">
-        <v>294.42</v>
+        <v>305.48</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I18" t="n">
-        <v>6.29</v>
+        <v>5.76</v>
       </c>
       <c r="J18" t="n">
-        <v>33.87</v>
+        <v>35.19</v>
       </c>
     </row>
   </sheetData>
@@ -6159,36 +6844,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="I1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>30157</v>
@@ -6220,7 +6905,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>30442</v>
@@ -6252,7 +6937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>29684</v>
@@ -6284,7 +6969,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>30072</v>
@@ -6316,7 +7001,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>29837</v>
@@ -6348,7 +7033,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>30329</v>
@@ -6380,7 +7065,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>29747</v>
@@ -6412,7 +7097,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>29728</v>
@@ -6444,7 +7129,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>29492</v>
@@ -6476,7 +7161,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>28737</v>
@@ -6508,7 +7193,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>36517</v>
@@ -6540,7 +7225,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>51116</v>
@@ -6572,7 +7257,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>58560</v>
@@ -6604,7 +7289,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>52642</v>
@@ -6636,7 +7321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>51349</v>
@@ -6668,7 +7353,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>45931</v>
@@ -6700,7 +7385,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>594340</v>

--- a/Supplementary_Tables_ARF_Sepsis_US_2010_2025.xlsx
+++ b/Supplementary_Tables_ARF_Sepsis_US_2010_2025.xlsx
@@ -6,12 +6,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ARF_year" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AKI_year" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sepsis_year" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ARF_sepsis_year" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ARF_period_summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AKI_sepsis_year" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AKI_period_summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sepsis_period_summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARF_Sepsis_period_summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="AKI_Sepsis_period_summary" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Deaths_by_age" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Rate_by_age" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Deaths_by_sex" sheetId="9" state="visible" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Crude rate (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">AAMR (/100,000), age-adjusted (25–85+)</t>
+    <t xml:space="preserve">AAMR (/100,000), age-adjusted (all ages)</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -133,811 +133,850 @@
     <t xml:space="preserve">Total deaths, n</t>
   </si>
   <si>
-    <t xml:space="preserve">616,444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329,018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113,467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209,464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,105,728,425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">679,083,392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228,869,359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">461,801,867</t>
+    <t xml:space="preserve">617,921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329,858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113,813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219,496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,421,308,016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">812,495,229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292,236,902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577,072,712</t>
   </si>
   <si>
     <t xml:space="preserve">Crude mortality rate (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">29.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.34</t>
+    <t xml:space="preserve">25.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.41</t>
   </si>
   <si>
     <t xml:space="preserve">Male AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">31.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.50</t>
+    <t xml:space="preserve">14.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.22</t>
   </si>
   <si>
     <t xml:space="preserve">Female AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">21.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age ≥65 AAMR (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age 45–64 AAMR (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age 25–44 AAMR (/100,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
+    <t xml:space="preserve">9.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;20 AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20–44 AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45–64 AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65+ AAMR (/100,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.07</t>
   </si>
   <si>
     <t xml:space="preserve">American Indian or Alaska Native AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">26.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.58</t>
+    <t xml:space="preserve">14.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.03</t>
   </si>
   <si>
     <t xml:space="preserve">Asian AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">16.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12</t>
+    <t xml:space="preserve">7.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.21</t>
   </si>
   <si>
     <t xml:space="preserve">Native Hawaiian or Other Pacific Islander AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">21.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.99</t>
+    <t xml:space="preserve">3.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.72</t>
   </si>
   <si>
     <t xml:space="preserve">Black or African American AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">32.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.11</t>
+    <t xml:space="preserve">16.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.07</t>
   </si>
   <si>
     <t xml:space="preserve">White AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">25.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.89</t>
+    <t xml:space="preserve">11.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.05</t>
   </si>
   <si>
     <t xml:space="preserve">More than one race AAMR (/100,000)</t>
   </si>
   <si>
-    <t xml:space="preserve">11.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,833,170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">742,157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223,826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418,046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,147,578,398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">684,111,948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231,394,206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">462,788,412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171,542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100,037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,064,109,482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662,244,115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222,645,766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450,542,487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25</t>
+    <t xml:space="preserve">5.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,848,028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">746,185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225,264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439,327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,025,853,108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">928,165,521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315,167,424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636,341,132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170,317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99,699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,009,295,348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">687,854,651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230,543,207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481,728,996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YearKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_lt20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_20_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_lt20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_20_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_lt20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_20_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_lt20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_20_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_lt20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_20_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_lt20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_20_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_45_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_65_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_deaths_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_deaths_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_deaths_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_AAMR_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis_AAMR_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF_Sepsis_AAMR_Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF (AAMR 25–85+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis (AAMR 25–85+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF &amp; Sepsis (AAMR 25–85+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis among ARF ((3)/(1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF among Sepsis ((3)/(2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARF &amp; sepsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total deaths (all ages), n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">921,914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,469,377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">580,431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crude mortality rate (all ages), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAMR (all ages), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male AAMR (all ages), /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female AAMR (all ages), /100,000</t>
   </si>
   <si>
     <t xml:space="preserve">12.59</t>
   </si>
   <si>
-    <t xml:space="preserve">13.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_deaths_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_deaths_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_deaths_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_deaths_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_deaths_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_deaths_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_deaths_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_deaths_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_deaths_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_AAMR_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_AAMR_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_AAMR_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_AAMR_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_AAMR_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_AAMR_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_AAMR_25_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_AAMR_45_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_AAMR_65_plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_deaths_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_deaths_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_deaths_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_deaths_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_deaths_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_deaths_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_deaths_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_deaths_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_deaths_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_AAMR_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_AAMR_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_AAMR_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_AAMR_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_AAMR_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis_AAMR_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_AAMR_Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_AAMR_Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF_Sepsis_AAMR_Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF (AAMR 25–85+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis (AAMR 25–85+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF &amp; Sepsis (AAMR 25–85+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis among ARF ((3)/(1))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF among Sepsis ((3)/(2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF &amp; sepsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total death (25–85+), n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,268,393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,217,199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745,002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crude mortality rate (25–85+), /100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAMR (25–85+), /100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male AAMR (25–85+), /100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female AAMR (25–85+), /100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03</t>
+    <t xml:space="preserve">36.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23</t>
   </si>
   <si>
     <t xml:space="preserve">Age categories</t>
   </si>
   <si>
+    <t xml:space="preserve">  Age &lt;20 AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Age 20–44 AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Age 45–64 AAMR, /100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Age ≥65 AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">126.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Age 45–64 AAMR, /100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Age 25–44 AAMR, /100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
+    <t xml:space="preserve">97.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.38</t>
   </si>
   <si>
     <t xml:space="preserve">Race and ethnicity</t>
@@ -946,70 +985,70 @@
     <t xml:space="preserve">  American Indian or Alaska Native AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">33.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.14</t>
+    <t xml:space="preserve">19.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40</t>
   </si>
   <si>
     <t xml:space="preserve">  Asian AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">19.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.88</t>
+    <t xml:space="preserve">9.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23</t>
   </si>
   <si>
     <t xml:space="preserve">  Black or African American AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">41.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.76</t>
+    <t xml:space="preserve">21.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85</t>
   </si>
   <si>
     <t xml:space="preserve">  Native Hawaiian or Other Pacific Islander AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">52.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.52</t>
+    <t xml:space="preserve">35.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.19</t>
   </si>
   <si>
     <t xml:space="preserve">  White AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">31.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10</t>
+    <t xml:space="preserve">15.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76</t>
   </si>
   <si>
     <t xml:space="preserve">  More than one race AAMR, /100,000</t>
   </si>
   <si>
-    <t xml:space="preserve">17.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34</t>
+    <t xml:space="preserve">10.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64</t>
   </si>
 </sst>
 </file>
@@ -1387,40 +1426,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>60757</v>
+        <v>60917</v>
       </c>
       <c r="C2" t="n">
-        <v>30157</v>
+        <v>30223</v>
       </c>
       <c r="D2" t="n">
-        <v>30600</v>
+        <v>30694</v>
       </c>
       <c r="E2" t="n">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="F2" t="n">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7458</v>
+        <v>7522</v>
       </c>
       <c r="I2" t="n">
-        <v>51489</v>
+        <v>51639</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>198935978</v>
+        <v>230222018</v>
       </c>
       <c r="L2" t="n">
-        <v>30.54</v>
+        <v>26.46</v>
       </c>
       <c r="M2" t="n">
-        <v>28.44</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="3">
@@ -1428,40 +1467,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>61358</v>
+        <v>61461</v>
       </c>
       <c r="C3" t="n">
-        <v>30442</v>
+        <v>30452</v>
       </c>
       <c r="D3" t="n">
-        <v>30916</v>
+        <v>31009</v>
       </c>
       <c r="E3" t="n">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="F3" t="n">
-        <v>1463</v>
+        <v>1444</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7318</v>
+        <v>7338</v>
       </c>
       <c r="I3" t="n">
-        <v>52141</v>
+        <v>52303</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>201522329</v>
+        <v>224737225</v>
       </c>
       <c r="L3" t="n">
-        <v>30.45</v>
+        <v>27.35</v>
       </c>
       <c r="M3" t="n">
-        <v>27.95</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="4">
@@ -1469,40 +1508,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>60136</v>
+        <v>60281</v>
       </c>
       <c r="C4" t="n">
-        <v>29684</v>
+        <v>29764</v>
       </c>
       <c r="D4" t="n">
-        <v>30452</v>
+        <v>30517</v>
       </c>
       <c r="E4" t="n">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="F4" t="n">
-        <v>1564</v>
+        <v>1544</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7131</v>
+        <v>7166</v>
       </c>
       <c r="I4" t="n">
-        <v>51015</v>
+        <v>51178</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>203290070</v>
+        <v>233592904</v>
       </c>
       <c r="L4" t="n">
-        <v>29.58</v>
+        <v>25.81</v>
       </c>
       <c r="M4" t="n">
-        <v>26.71</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="5">
@@ -1510,40 +1549,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>61138</v>
+        <v>61289</v>
       </c>
       <c r="C5" t="n">
-        <v>30072</v>
+        <v>30104</v>
       </c>
       <c r="D5" t="n">
-        <v>31066</v>
+        <v>31185</v>
       </c>
       <c r="E5" t="n">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="F5" t="n">
-        <v>1657</v>
+        <v>1629</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7378</v>
+        <v>7424</v>
       </c>
       <c r="I5" t="n">
-        <v>51667</v>
+        <v>51826</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>208896833</v>
+        <v>238255333</v>
       </c>
       <c r="L5" t="n">
-        <v>29.27</v>
+        <v>25.72</v>
       </c>
       <c r="M5" t="n">
-        <v>26.53</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="6">
@@ -1551,40 +1590,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>61123</v>
+        <v>61311</v>
       </c>
       <c r="C6" t="n">
-        <v>29837</v>
+        <v>29913</v>
       </c>
       <c r="D6" t="n">
-        <v>31286</v>
+        <v>31398</v>
       </c>
       <c r="E6" t="n">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="F6" t="n">
-        <v>1671</v>
+        <v>1659</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7152</v>
+        <v>7202</v>
       </c>
       <c r="I6" t="n">
-        <v>51802</v>
+        <v>51980</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>209830870</v>
+        <v>243169197</v>
       </c>
       <c r="L6" t="n">
-        <v>29.13</v>
+        <v>25.21</v>
       </c>
       <c r="M6" t="n">
-        <v>25.91</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="7">
@@ -1592,40 +1631,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>62482</v>
+        <v>62676</v>
       </c>
       <c r="C7" t="n">
-        <v>30329</v>
+        <v>30402</v>
       </c>
       <c r="D7" t="n">
-        <v>32153</v>
+        <v>32274</v>
       </c>
       <c r="E7" t="n">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="F7" t="n">
-        <v>1687</v>
+        <v>1668</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7595</v>
+        <v>7666</v>
       </c>
       <c r="I7" t="n">
-        <v>52689</v>
+        <v>52857</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>212419624</v>
+        <v>244597878</v>
       </c>
       <c r="L7" t="n">
-        <v>29.41</v>
+        <v>25.62</v>
       </c>
       <c r="M7" t="n">
-        <v>25.92</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="8">
@@ -1633,40 +1672,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>62146</v>
+        <v>62311</v>
       </c>
       <c r="C8" t="n">
-        <v>29747</v>
+        <v>29830</v>
       </c>
       <c r="D8" t="n">
-        <v>32399</v>
+        <v>32481</v>
       </c>
       <c r="E8" t="n">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="F8" t="n">
-        <v>1723</v>
+        <v>1697</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>7688</v>
+        <v>7747</v>
       </c>
       <c r="I8" t="n">
-        <v>52215</v>
+        <v>52396</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>214796191</v>
+        <v>246000900</v>
       </c>
       <c r="L8" t="n">
-        <v>28.93</v>
+        <v>25.33</v>
       </c>
       <c r="M8" t="n">
-        <v>25.28</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="9">
@@ -1674,40 +1713,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>62815</v>
+        <v>63061</v>
       </c>
       <c r="C9" t="n">
-        <v>29728</v>
+        <v>29829</v>
       </c>
       <c r="D9" t="n">
-        <v>33087</v>
+        <v>33232</v>
       </c>
       <c r="E9" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="F9" t="n">
-        <v>1897</v>
+        <v>1874</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7651</v>
+        <v>7709</v>
       </c>
       <c r="I9" t="n">
-        <v>52723</v>
+        <v>52959</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>217459019</v>
+        <v>260558885</v>
       </c>
       <c r="L9" t="n">
-        <v>28.89</v>
+        <v>24.2</v>
       </c>
       <c r="M9" t="n">
-        <v>24.98</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="10">
@@ -1715,40 +1754,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>62927</v>
+        <v>62968</v>
       </c>
       <c r="C10" t="n">
-        <v>29492</v>
+        <v>29488</v>
       </c>
       <c r="D10" t="n">
-        <v>33435</v>
+        <v>33480</v>
       </c>
       <c r="E10" t="n">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="F10" t="n">
-        <v>1797</v>
+        <v>1771</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7847</v>
+        <v>7904</v>
       </c>
       <c r="I10" t="n">
-        <v>52446</v>
+        <v>52611</v>
       </c>
       <c r="J10" t="n">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="K10" t="n">
-        <v>219491749</v>
+        <v>245956865</v>
       </c>
       <c r="L10" t="n">
-        <v>28.67</v>
+        <v>25.6</v>
       </c>
       <c r="M10" t="n">
-        <v>24.52</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="11">
@@ -1756,40 +1795,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>61562</v>
+        <v>61646</v>
       </c>
       <c r="C11" t="n">
-        <v>28737</v>
+        <v>28769</v>
       </c>
       <c r="D11" t="n">
-        <v>32825</v>
+        <v>32877</v>
       </c>
       <c r="E11" t="n">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="F11" t="n">
-        <v>1763</v>
+        <v>1740</v>
       </c>
       <c r="G11" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>7955</v>
+        <v>8004</v>
       </c>
       <c r="I11" t="n">
-        <v>50958</v>
+        <v>51162</v>
       </c>
       <c r="J11" t="n">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="K11" t="n">
-        <v>219085762</v>
+        <v>254216811</v>
       </c>
       <c r="L11" t="n">
-        <v>28.1</v>
+        <v>24.25</v>
       </c>
       <c r="M11" t="n">
-        <v>23.6</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="12">
@@ -1797,40 +1836,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>82133</v>
+        <v>82217</v>
       </c>
       <c r="C12" t="n">
-        <v>36517</v>
+        <v>36561</v>
       </c>
       <c r="D12" t="n">
-        <v>45616</v>
+        <v>45656</v>
       </c>
       <c r="E12" t="n">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="F12" t="n">
-        <v>2560</v>
+        <v>2548</v>
       </c>
       <c r="G12" t="n">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="H12" t="n">
-        <v>12349</v>
+        <v>12401</v>
       </c>
       <c r="I12" t="n">
-        <v>65782</v>
+        <v>65950</v>
       </c>
       <c r="J12" t="n">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="K12" t="n">
-        <v>224008269</v>
+        <v>250705822</v>
       </c>
       <c r="L12" t="n">
-        <v>36.67</v>
+        <v>32.79</v>
       </c>
       <c r="M12" t="n">
-        <v>30.86</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="13">
@@ -1838,40 +1877,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>117868</v>
+        <v>118247</v>
       </c>
       <c r="C13" t="n">
-        <v>51116</v>
+        <v>51250</v>
       </c>
       <c r="D13" t="n">
-        <v>66752</v>
+        <v>66997</v>
       </c>
       <c r="E13" t="n">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="F13" t="n">
-        <v>3565</v>
+        <v>3559</v>
       </c>
       <c r="G13" t="n">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="H13" t="n">
-        <v>16726</v>
+        <v>16827</v>
       </c>
       <c r="I13" t="n">
-        <v>95356</v>
+        <v>95708</v>
       </c>
       <c r="J13" t="n">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="K13" t="n">
-        <v>227382614</v>
+        <v>279722617</v>
       </c>
       <c r="L13" t="n">
-        <v>51.84</v>
+        <v>42.27</v>
       </c>
       <c r="M13" t="n">
-        <v>45.28</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="14">
@@ -1879,40 +1918,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>129017</v>
+        <v>129394</v>
       </c>
       <c r="C14" t="n">
-        <v>58560</v>
+        <v>58713</v>
       </c>
       <c r="D14" t="n">
-        <v>70457</v>
+        <v>70681</v>
       </c>
       <c r="E14" t="n">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="F14" t="n">
-        <v>3802</v>
+        <v>3795</v>
       </c>
       <c r="G14" t="n">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="H14" t="n">
-        <v>17804</v>
+        <v>17909</v>
       </c>
       <c r="I14" t="n">
-        <v>105219</v>
+        <v>105588</v>
       </c>
       <c r="J14" t="n">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="K14" t="n">
-        <v>227692509</v>
+        <v>282066790</v>
       </c>
       <c r="L14" t="n">
-        <v>56.66</v>
+        <v>45.87</v>
       </c>
       <c r="M14" t="n">
-        <v>47.56</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="15">
@@ -1920,40 +1959,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>113467</v>
+        <v>113813</v>
       </c>
       <c r="C15" t="n">
-        <v>52642</v>
+        <v>52760</v>
       </c>
       <c r="D15" t="n">
-        <v>60825</v>
+        <v>61053</v>
       </c>
       <c r="E15" t="n">
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="F15" t="n">
-        <v>3509</v>
+        <v>3502</v>
       </c>
       <c r="G15" t="n">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="H15" t="n">
-        <v>15641</v>
+        <v>15740</v>
       </c>
       <c r="I15" t="n">
-        <v>92422</v>
+        <v>92798</v>
       </c>
       <c r="J15" t="n">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="K15" t="n">
-        <v>228869359</v>
+        <v>292236902</v>
       </c>
       <c r="L15" t="n">
-        <v>49.58</v>
+        <v>38.95</v>
       </c>
       <c r="M15" t="n">
-        <v>41.55</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="16">
@@ -1961,40 +2000,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>110623</v>
+        <v>111031</v>
       </c>
       <c r="C16" t="n">
-        <v>51349</v>
+        <v>51540</v>
       </c>
       <c r="D16" t="n">
-        <v>59274</v>
+        <v>59491</v>
       </c>
       <c r="E16" t="n">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="F16" t="n">
-        <v>3524</v>
+        <v>3512</v>
       </c>
       <c r="G16" t="n">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H16" t="n">
-        <v>15366</v>
+        <v>15483</v>
       </c>
       <c r="I16" t="n">
-        <v>89842</v>
+        <v>90204</v>
       </c>
       <c r="J16" t="n">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="K16" t="n">
-        <v>231245624</v>
+        <v>299512390</v>
       </c>
       <c r="L16" t="n">
-        <v>47.84</v>
+        <v>37.07</v>
       </c>
       <c r="M16" t="n">
-        <v>40.52</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="17">
@@ -2002,40 +2041,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>98841</v>
+        <v>108465</v>
       </c>
       <c r="C17" t="n">
-        <v>45931</v>
+        <v>50401</v>
       </c>
       <c r="D17" t="n">
-        <v>52910</v>
+        <v>58064</v>
       </c>
       <c r="E17" t="n">
-        <v>800</v>
+        <v>846</v>
       </c>
       <c r="F17" t="n">
-        <v>3232</v>
+        <v>3531</v>
       </c>
       <c r="G17" t="n">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="H17" t="n">
-        <v>13608</v>
+        <v>15112</v>
       </c>
       <c r="I17" t="n">
-        <v>80432</v>
+        <v>88203</v>
       </c>
       <c r="J17" t="n">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="K17" t="n">
-        <v>230556243</v>
+        <v>277560322</v>
       </c>
       <c r="L17" t="n">
-        <v>42.87</v>
+        <v>39.08</v>
       </c>
       <c r="M17" t="n">
-        <v>36.16</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="18">
@@ -2043,40 +2082,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>1268393</v>
+        <v>1281088</v>
       </c>
       <c r="C18" t="n">
-        <v>594340</v>
+        <v>599999</v>
       </c>
       <c r="D18" t="n">
-        <v>674053</v>
+        <v>681089</v>
       </c>
       <c r="E18" t="n">
-        <v>11056</v>
+        <v>10633</v>
       </c>
       <c r="F18" t="n">
-        <v>36800</v>
+        <v>36839</v>
       </c>
       <c r="G18" t="n">
-        <v>1473</v>
+        <v>1169</v>
       </c>
       <c r="H18" t="n">
-        <v>166667</v>
+        <v>169154</v>
       </c>
       <c r="I18" t="n">
-        <v>1048198</v>
+        <v>1059362</v>
       </c>
       <c r="J18" t="n">
-        <v>4199</v>
+        <v>3931</v>
       </c>
       <c r="K18" t="n">
-        <v>3475483043</v>
+        <v>4103112859</v>
       </c>
       <c r="L18" t="n">
-        <v>36.5</v>
+        <v>31.22</v>
       </c>
       <c r="M18" t="n">
-        <v>31.73</v>
+        <v>15.57</v>
       </c>
     </row>
   </sheetData>
@@ -2098,31 +2137,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
@@ -2688,19 +2727,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
@@ -3062,88 +3101,88 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -3151,136 +3190,150 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+        <v>314</v>
+      </c>
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" t="s">
-        <v>309</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3343,40 +3396,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>157780</v>
+        <v>159485</v>
       </c>
       <c r="C2" t="n">
-        <v>82294</v>
+        <v>83044</v>
       </c>
       <c r="D2" t="n">
-        <v>75486</v>
+        <v>76441</v>
       </c>
       <c r="E2" t="n">
-        <v>1198</v>
+        <v>1159</v>
       </c>
       <c r="F2" t="n">
-        <v>3965</v>
+        <v>3975</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>24208</v>
+        <v>24688</v>
       </c>
       <c r="I2" t="n">
-        <v>128409</v>
+        <v>129663</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>203891983</v>
+        <v>292504575</v>
       </c>
       <c r="L2" t="n">
-        <v>77.38</v>
+        <v>54.52</v>
       </c>
       <c r="M2" t="n">
-        <v>73.67</v>
+        <v>37.06</v>
       </c>
     </row>
     <row r="3">
@@ -3384,40 +3437,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>163118</v>
+        <v>164660</v>
       </c>
       <c r="C3" t="n">
-        <v>85408</v>
+        <v>86119</v>
       </c>
       <c r="D3" t="n">
-        <v>77710</v>
+        <v>78541</v>
       </c>
       <c r="E3" t="n">
-        <v>1297</v>
+        <v>1264</v>
       </c>
       <c r="F3" t="n">
-        <v>4146</v>
+        <v>4156</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>24574</v>
+        <v>25003</v>
       </c>
       <c r="I3" t="n">
-        <v>133101</v>
+        <v>134237</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>206592936</v>
+        <v>295243671</v>
       </c>
       <c r="L3" t="n">
-        <v>78.96</v>
+        <v>55.77</v>
       </c>
       <c r="M3" t="n">
-        <v>74.15</v>
+        <v>37.27</v>
       </c>
     </row>
     <row r="4">
@@ -3425,40 +3478,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>163495</v>
+        <v>164979</v>
       </c>
       <c r="C4" t="n">
-        <v>84628</v>
+        <v>85276</v>
       </c>
       <c r="D4" t="n">
-        <v>78867</v>
+        <v>79703</v>
       </c>
       <c r="E4" t="n">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="F4" t="n">
-        <v>4360</v>
+        <v>4364</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24305</v>
+        <v>24699</v>
       </c>
       <c r="I4" t="n">
-        <v>133492</v>
+        <v>134591</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>208826037</v>
+        <v>297678807</v>
       </c>
       <c r="L4" t="n">
-        <v>78.29</v>
+        <v>55.42</v>
       </c>
       <c r="M4" t="n">
-        <v>72.54</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="5">
@@ -3466,40 +3519,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>172068</v>
+        <v>173525</v>
       </c>
       <c r="C5" t="n">
-        <v>88900</v>
+        <v>89550</v>
       </c>
       <c r="D5" t="n">
-        <v>83168</v>
+        <v>83975</v>
       </c>
       <c r="E5" t="n">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="F5" t="n">
-        <v>4832</v>
+        <v>4859</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25710</v>
+        <v>26111</v>
       </c>
       <c r="I5" t="n">
-        <v>140087</v>
+        <v>141133</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>211085314</v>
+        <v>302598148</v>
       </c>
       <c r="L5" t="n">
-        <v>81.52</v>
+        <v>57.35</v>
       </c>
       <c r="M5" t="n">
-        <v>74.64</v>
+        <v>37.73</v>
       </c>
     </row>
     <row r="6">
@@ -3507,40 +3560,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>180677</v>
+        <v>182156</v>
       </c>
       <c r="C6" t="n">
-        <v>92682</v>
+        <v>93347</v>
       </c>
       <c r="D6" t="n">
-        <v>87995</v>
+        <v>88809</v>
       </c>
       <c r="E6" t="n">
-        <v>1583</v>
+        <v>1563</v>
       </c>
       <c r="F6" t="n">
-        <v>4965</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>26508</v>
+        <v>26903</v>
       </c>
       <c r="I6" t="n">
-        <v>147621</v>
+        <v>148690</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>213809280</v>
+        <v>305157419</v>
       </c>
       <c r="L6" t="n">
-        <v>84.5</v>
+        <v>59.69</v>
       </c>
       <c r="M6" t="n">
-        <v>76.53</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="7">
@@ -3548,40 +3601,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>193580</v>
+        <v>195083</v>
       </c>
       <c r="C7" t="n">
-        <v>98699</v>
+        <v>99402</v>
       </c>
       <c r="D7" t="n">
-        <v>94881</v>
+        <v>95681</v>
       </c>
       <c r="E7" t="n">
-        <v>1675</v>
+        <v>1658</v>
       </c>
       <c r="F7" t="n">
-        <v>5485</v>
+        <v>5480</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28267</v>
+        <v>28722</v>
       </c>
       <c r="I7" t="n">
-        <v>158153</v>
+        <v>159223</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>216553817</v>
+        <v>304893654</v>
       </c>
       <c r="L7" t="n">
-        <v>89.39</v>
+        <v>63.98</v>
       </c>
       <c r="M7" t="n">
-        <v>80.2</v>
+        <v>40.47</v>
       </c>
     </row>
     <row r="8">
@@ -3589,40 +3642,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>196328</v>
+        <v>198041</v>
       </c>
       <c r="C8" t="n">
-        <v>99466</v>
+        <v>100246</v>
       </c>
       <c r="D8" t="n">
-        <v>96862</v>
+        <v>97795</v>
       </c>
       <c r="E8" t="n">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="F8" t="n">
-        <v>5726</v>
+        <v>5782</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>28665</v>
+        <v>29085</v>
       </c>
       <c r="I8" t="n">
-        <v>160166</v>
+        <v>161412</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>218641417</v>
+        <v>304598538</v>
       </c>
       <c r="L8" t="n">
-        <v>89.79</v>
+        <v>65.02</v>
       </c>
       <c r="M8" t="n">
-        <v>79.72</v>
+        <v>40.62</v>
       </c>
     </row>
     <row r="9">
@@ -3630,40 +3683,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>202135</v>
+        <v>203596</v>
       </c>
       <c r="C9" t="n">
-        <v>102050</v>
+        <v>102714</v>
       </c>
       <c r="D9" t="n">
-        <v>100085</v>
+        <v>100882</v>
       </c>
       <c r="E9" t="n">
-        <v>1848</v>
+        <v>1834</v>
       </c>
       <c r="F9" t="n">
-        <v>6133</v>
+        <v>6186</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29213</v>
+        <v>29578</v>
       </c>
       <c r="I9" t="n">
-        <v>164941</v>
+        <v>165998</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>221447331</v>
+        <v>312039889</v>
       </c>
       <c r="L9" t="n">
-        <v>91.28</v>
+        <v>65.25</v>
       </c>
       <c r="M9" t="n">
-        <v>80.23</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="10">
@@ -3671,40 +3724,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>204379</v>
+        <v>205703</v>
       </c>
       <c r="C10" t="n">
-        <v>102197</v>
+        <v>102853</v>
       </c>
       <c r="D10" t="n">
-        <v>102182</v>
+        <v>102850</v>
       </c>
       <c r="E10" t="n">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="F10" t="n">
-        <v>5720</v>
+        <v>5730</v>
       </c>
       <c r="G10" t="n">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="H10" t="n">
-        <v>29940</v>
+        <v>30317</v>
       </c>
       <c r="I10" t="n">
-        <v>165875</v>
+        <v>166878</v>
       </c>
       <c r="J10" t="n">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="K10" t="n">
-        <v>222477466</v>
+        <v>307295233</v>
       </c>
       <c r="L10" t="n">
-        <v>91.87</v>
+        <v>66.94</v>
       </c>
       <c r="M10" t="n">
-        <v>79.44</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="11">
@@ -3712,40 +3765,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>199610</v>
+        <v>200800</v>
       </c>
       <c r="C11" t="n">
-        <v>99106</v>
+        <v>99693</v>
       </c>
       <c r="D11" t="n">
-        <v>100504</v>
+        <v>101107</v>
       </c>
       <c r="E11" t="n">
-        <v>1654</v>
+        <v>1631</v>
       </c>
       <c r="F11" t="n">
-        <v>5653</v>
+        <v>5666</v>
       </c>
       <c r="G11" t="n">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="H11" t="n">
-        <v>29140</v>
+        <v>29491</v>
       </c>
       <c r="I11" t="n">
-        <v>161964</v>
+        <v>162910</v>
       </c>
       <c r="J11" t="n">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="K11" t="n">
-        <v>224252817</v>
+        <v>303843174</v>
       </c>
       <c r="L11" t="n">
-        <v>89.01</v>
+        <v>66.09</v>
       </c>
       <c r="M11" t="n">
-        <v>76.13</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="12">
@@ -3753,40 +3806,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>240713</v>
+        <v>241931</v>
       </c>
       <c r="C12" t="n">
-        <v>116334</v>
+        <v>116858</v>
       </c>
       <c r="D12" t="n">
-        <v>124379</v>
+        <v>125073</v>
       </c>
       <c r="E12" t="n">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="F12" t="n">
-        <v>7581</v>
+        <v>7592</v>
       </c>
       <c r="G12" t="n">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="H12" t="n">
-        <v>38231</v>
+        <v>38578</v>
       </c>
       <c r="I12" t="n">
-        <v>190890</v>
+        <v>191827</v>
       </c>
       <c r="J12" t="n">
-        <v>1181</v>
+        <v>1157</v>
       </c>
       <c r="K12" t="n">
-        <v>226567849</v>
+        <v>306011056</v>
       </c>
       <c r="L12" t="n">
-        <v>106.24</v>
+        <v>79.06</v>
       </c>
       <c r="M12" t="n">
-        <v>90.31</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="13">
@@ -3794,40 +3847,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>259405</v>
+        <v>260805</v>
       </c>
       <c r="C13" t="n">
-        <v>123823</v>
+        <v>124408</v>
       </c>
       <c r="D13" t="n">
-        <v>135582</v>
+        <v>136397</v>
       </c>
       <c r="E13" t="n">
-        <v>2532</v>
+        <v>2547</v>
       </c>
       <c r="F13" t="n">
-        <v>8078</v>
+        <v>8102</v>
       </c>
       <c r="G13" t="n">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H13" t="n">
-        <v>39907</v>
+        <v>40301</v>
       </c>
       <c r="I13" t="n">
-        <v>206976</v>
+        <v>207962</v>
       </c>
       <c r="J13" t="n">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="K13" t="n">
-        <v>228172001</v>
+        <v>311487199</v>
       </c>
       <c r="L13" t="n">
-        <v>113.69</v>
+        <v>83.73</v>
       </c>
       <c r="M13" t="n">
-        <v>99.15</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="14">
@@ -3835,40 +3888,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>242039</v>
+        <v>243449</v>
       </c>
       <c r="C14" t="n">
-        <v>118080</v>
+        <v>118747</v>
       </c>
       <c r="D14" t="n">
-        <v>123959</v>
+        <v>124702</v>
       </c>
       <c r="E14" t="n">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="F14" t="n">
-        <v>7667</v>
+        <v>7668</v>
       </c>
       <c r="G14" t="n">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H14" t="n">
-        <v>36958</v>
+        <v>37370</v>
       </c>
       <c r="I14" t="n">
-        <v>193421</v>
+        <v>194435</v>
       </c>
       <c r="J14" t="n">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="K14" t="n">
-        <v>229372098</v>
+        <v>310667266</v>
       </c>
       <c r="L14" t="n">
-        <v>105.52</v>
+        <v>78.36</v>
       </c>
       <c r="M14" t="n">
-        <v>88.99</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="15">
@@ -3876,40 +3929,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>223826</v>
+        <v>225264</v>
       </c>
       <c r="C15" t="n">
-        <v>109651</v>
+        <v>110289</v>
       </c>
       <c r="D15" t="n">
-        <v>114175</v>
+        <v>114975</v>
       </c>
       <c r="E15" t="n">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="F15" t="n">
-        <v>7401</v>
+        <v>7432</v>
       </c>
       <c r="G15" t="n">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="H15" t="n">
-        <v>33189</v>
+        <v>33579</v>
       </c>
       <c r="I15" t="n">
-        <v>179608</v>
+        <v>180691</v>
       </c>
       <c r="J15" t="n">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="K15" t="n">
-        <v>231394206</v>
+        <v>315167424</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73</v>
+        <v>71.47</v>
       </c>
       <c r="M15" t="n">
-        <v>81.6</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="16">
@@ -3917,40 +3970,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>219706</v>
+        <v>220979</v>
       </c>
       <c r="C16" t="n">
-        <v>108214</v>
+        <v>108782</v>
       </c>
       <c r="D16" t="n">
-        <v>111492</v>
+        <v>112197</v>
       </c>
       <c r="E16" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="F16" t="n">
-        <v>7333</v>
+        <v>7336</v>
       </c>
       <c r="G16" t="n">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="H16" t="n">
-        <v>33585</v>
+        <v>33954</v>
       </c>
       <c r="I16" t="n">
-        <v>175109</v>
+        <v>176062</v>
       </c>
       <c r="J16" t="n">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="K16" t="n">
-        <v>231394206</v>
+        <v>317634680</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95</v>
+        <v>69.57</v>
       </c>
       <c r="M16" t="n">
-        <v>80.05</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="17">
@@ -3958,40 +4011,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>198340</v>
+        <v>218348</v>
       </c>
       <c r="C17" t="n">
-        <v>97048</v>
+        <v>106807</v>
       </c>
       <c r="D17" t="n">
-        <v>101292</v>
+        <v>111541</v>
       </c>
       <c r="E17" t="n">
-        <v>1692</v>
+        <v>1841</v>
       </c>
       <c r="F17" t="n">
-        <v>6845</v>
+        <v>7531</v>
       </c>
       <c r="G17" t="n">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="H17" t="n">
-        <v>29863</v>
+        <v>33286</v>
       </c>
       <c r="I17" t="n">
-        <v>158460</v>
+        <v>174087</v>
       </c>
       <c r="J17" t="n">
-        <v>1088</v>
+        <v>1198</v>
       </c>
       <c r="K17" t="n">
-        <v>231394206</v>
+        <v>318706452</v>
       </c>
       <c r="L17" t="n">
-        <v>85.72</v>
+        <v>68.51</v>
       </c>
       <c r="M17" t="n">
-        <v>72.23</v>
+        <v>39.35</v>
       </c>
     </row>
     <row r="18">
@@ -3999,40 +4052,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>3217199</v>
+        <v>3258804</v>
       </c>
       <c r="C18" t="n">
-        <v>1608580</v>
+        <v>1628135</v>
       </c>
       <c r="D18" t="n">
-        <v>1608619</v>
+        <v>1630669</v>
       </c>
       <c r="E18" t="n">
-        <v>28327</v>
+        <v>28262</v>
       </c>
       <c r="F18" t="n">
-        <v>95890</v>
+        <v>96859</v>
       </c>
       <c r="G18" t="n">
-        <v>3322</v>
+        <v>3073</v>
       </c>
       <c r="H18" t="n">
-        <v>482263</v>
+        <v>491665</v>
       </c>
       <c r="I18" t="n">
-        <v>2598273</v>
+        <v>2629799</v>
       </c>
       <c r="J18" t="n">
-        <v>9124</v>
+        <v>9146</v>
       </c>
       <c r="K18" t="n">
-        <v>3525872964</v>
+        <v>4905527185</v>
       </c>
       <c r="L18" t="n">
-        <v>91.25</v>
+        <v>66.43</v>
       </c>
       <c r="M18" t="n">
-        <v>80.22</v>
+        <v>41.17</v>
       </c>
     </row>
   </sheetData>
@@ -4095,25 +4148,25 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>15489</v>
+        <v>15344</v>
       </c>
       <c r="C2" t="n">
-        <v>7853</v>
+        <v>7751</v>
       </c>
       <c r="D2" t="n">
-        <v>7636</v>
+        <v>7593</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2152</v>
+        <v>2132</v>
       </c>
       <c r="I2" t="n">
         <v>12849</v>
@@ -4122,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>195569995</v>
+        <v>183035994</v>
       </c>
       <c r="L2" t="n">
-        <v>7.92</v>
+        <v>8.38</v>
       </c>
       <c r="M2" t="n">
-        <v>7.28</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="3">
@@ -4136,40 +4189,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>16026</v>
+        <v>15898</v>
       </c>
       <c r="C3" t="n">
-        <v>8082</v>
+        <v>8009</v>
       </c>
       <c r="D3" t="n">
-        <v>7944</v>
+        <v>7889</v>
       </c>
       <c r="E3" t="n">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2134</v>
+        <v>2114</v>
       </c>
       <c r="I3" t="n">
-        <v>13333</v>
+        <v>13344</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>199588982</v>
+        <v>194517166</v>
       </c>
       <c r="L3" t="n">
-        <v>8.03</v>
+        <v>8.17</v>
       </c>
       <c r="M3" t="n">
-        <v>7.34</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -4177,40 +4230,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>15598</v>
+        <v>15467</v>
       </c>
       <c r="C4" t="n">
-        <v>7822</v>
+        <v>7743</v>
       </c>
       <c r="D4" t="n">
-        <v>7776</v>
+        <v>7724</v>
       </c>
       <c r="E4" t="n">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>13003</v>
+        <v>12997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>198438667</v>
+        <v>187039805</v>
       </c>
       <c r="L4" t="n">
-        <v>7.86</v>
+        <v>8.27</v>
       </c>
       <c r="M4" t="n">
-        <v>6.95</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="5">
@@ -4218,40 +4271,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>16471</v>
+        <v>16336</v>
       </c>
       <c r="C5" t="n">
-        <v>8304</v>
+        <v>8241</v>
       </c>
       <c r="D5" t="n">
-        <v>8167</v>
+        <v>8095</v>
       </c>
       <c r="E5" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2245</v>
+        <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>13622</v>
+        <v>13639</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>203774530</v>
+        <v>200069655</v>
       </c>
       <c r="L5" t="n">
-        <v>8.08</v>
+        <v>8.17</v>
       </c>
       <c r="M5" t="n">
-        <v>7.21</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="6">
@@ -4259,40 +4312,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>17092</v>
+        <v>16957</v>
       </c>
       <c r="C6" t="n">
-        <v>8491</v>
+        <v>8419</v>
       </c>
       <c r="D6" t="n">
-        <v>8601</v>
+        <v>8538</v>
       </c>
       <c r="E6" t="n">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2172</v>
+        <v>2141</v>
       </c>
       <c r="I6" t="n">
-        <v>14283</v>
+        <v>14294</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>206411925</v>
+        <v>198499977</v>
       </c>
       <c r="L6" t="n">
-        <v>8.28</v>
+        <v>8.54</v>
       </c>
       <c r="M6" t="n">
-        <v>7.28</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="7">
@@ -4300,40 +4353,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>18196</v>
+        <v>18113</v>
       </c>
       <c r="C7" t="n">
-        <v>9068</v>
+        <v>9009</v>
       </c>
       <c r="D7" t="n">
-        <v>9128</v>
+        <v>9104</v>
       </c>
       <c r="E7" t="n">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2375</v>
+        <v>2362</v>
       </c>
       <c r="I7" t="n">
-        <v>15146</v>
+        <v>15157</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>208860047</v>
+        <v>197162718</v>
       </c>
       <c r="L7" t="n">
-        <v>8.71</v>
+        <v>9.19</v>
       </c>
       <c r="M7" t="n">
-        <v>7.6</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -4341,40 +4394,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>18069</v>
+        <v>18004</v>
       </c>
       <c r="C8" t="n">
-        <v>8786</v>
+        <v>8750</v>
       </c>
       <c r="D8" t="n">
-        <v>9283</v>
+        <v>9254</v>
       </c>
       <c r="E8" t="n">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2335</v>
+        <v>2316</v>
       </c>
       <c r="I8" t="n">
-        <v>15028</v>
+        <v>15071</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>212105039</v>
+        <v>216778251</v>
       </c>
       <c r="L8" t="n">
-        <v>8.52</v>
+        <v>8.31</v>
       </c>
       <c r="M8" t="n">
-        <v>7.38</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="9">
@@ -4382,40 +4435,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>18407</v>
+        <v>18356</v>
       </c>
       <c r="C9" t="n">
-        <v>8956</v>
+        <v>8933</v>
       </c>
       <c r="D9" t="n">
-        <v>9451</v>
+        <v>9423</v>
       </c>
       <c r="E9" t="n">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="F9" t="n">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2382</v>
+        <v>2373</v>
       </c>
       <c r="I9" t="n">
-        <v>15262</v>
+        <v>15287</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>213445252</v>
+        <v>219182564</v>
       </c>
       <c r="L9" t="n">
-        <v>8.62</v>
+        <v>8.37</v>
       </c>
       <c r="M9" t="n">
-        <v>7.35</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="10">
@@ -4423,40 +4476,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>18458</v>
+        <v>18296</v>
       </c>
       <c r="C10" t="n">
-        <v>8899</v>
+        <v>8830</v>
       </c>
       <c r="D10" t="n">
-        <v>9559</v>
+        <v>9466</v>
       </c>
       <c r="E10" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2434</v>
+        <v>2410</v>
       </c>
       <c r="I10" t="n">
         <v>15296</v>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>212070402</v>
+        <v>198340034</v>
       </c>
       <c r="L10" t="n">
-        <v>8.7</v>
+        <v>9.22</v>
       </c>
       <c r="M10" t="n">
-        <v>7.29</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="11">
@@ -4464,40 +4517,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>17736</v>
+        <v>17546</v>
       </c>
       <c r="C11" t="n">
-        <v>8516</v>
+        <v>8414</v>
       </c>
       <c r="D11" t="n">
-        <v>9220</v>
+        <v>9132</v>
       </c>
       <c r="E11" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2416</v>
+        <v>2393</v>
       </c>
       <c r="I11" t="n">
-        <v>14550</v>
+        <v>14574</v>
       </c>
       <c r="J11" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>213844643</v>
+        <v>214669184</v>
       </c>
       <c r="L11" t="n">
-        <v>8.29</v>
+        <v>8.17</v>
       </c>
       <c r="M11" t="n">
-        <v>6.87</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="12">
@@ -4505,40 +4558,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>23813</v>
+        <v>23713</v>
       </c>
       <c r="C12" t="n">
-        <v>10765</v>
+        <v>10713</v>
       </c>
       <c r="D12" t="n">
-        <v>13048</v>
+        <v>13000</v>
       </c>
       <c r="E12" t="n">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="F12" t="n">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3707</v>
+        <v>3702</v>
       </c>
       <c r="I12" t="n">
-        <v>18932</v>
+        <v>18965</v>
       </c>
       <c r="J12" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="K12" t="n">
-        <v>217118385</v>
+        <v>220451411</v>
       </c>
       <c r="L12" t="n">
-        <v>10.97</v>
+        <v>10.76</v>
       </c>
       <c r="M12" t="n">
-        <v>9.02</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="13">
@@ -4546,40 +4599,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>36063</v>
+        <v>35907</v>
       </c>
       <c r="C13" t="n">
-        <v>16031</v>
+        <v>15934</v>
       </c>
       <c r="D13" t="n">
-        <v>20032</v>
+        <v>19973</v>
       </c>
       <c r="E13" t="n">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="F13" t="n">
-        <v>1150</v>
+        <v>1113</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="H13" t="n">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="I13" t="n">
-        <v>29010</v>
+        <v>29058</v>
       </c>
       <c r="J13" t="n">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="K13" t="n">
-        <v>222327547</v>
+        <v>228289765</v>
       </c>
       <c r="L13" t="n">
-        <v>16.22</v>
+        <v>15.73</v>
       </c>
       <c r="M13" t="n">
-        <v>13.83</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="14">
@@ -4587,40 +4640,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>40161</v>
+        <v>40079</v>
       </c>
       <c r="C14" t="n">
-        <v>18895</v>
+        <v>18873</v>
       </c>
       <c r="D14" t="n">
-        <v>21266</v>
+        <v>21206</v>
       </c>
       <c r="E14" t="n">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="F14" t="n">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5705</v>
+        <v>5711</v>
       </c>
       <c r="I14" t="n">
-        <v>32610</v>
+        <v>32662</v>
       </c>
       <c r="J14" t="n">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="K14" t="n">
-        <v>222798183</v>
+        <v>239113475</v>
       </c>
       <c r="L14" t="n">
-        <v>18.03</v>
+        <v>16.76</v>
       </c>
       <c r="M14" t="n">
-        <v>14.83</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="15">
@@ -4628,40 +4681,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>36425</v>
+        <v>36305</v>
       </c>
       <c r="C15" t="n">
-        <v>17546</v>
+        <v>17473</v>
       </c>
       <c r="D15" t="n">
-        <v>18879</v>
+        <v>18832</v>
       </c>
       <c r="E15" t="n">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="F15" t="n">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5087</v>
+        <v>5084</v>
       </c>
       <c r="I15" t="n">
-        <v>29574</v>
+        <v>29622</v>
       </c>
       <c r="J15" t="n">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="K15" t="n">
-        <v>222645766</v>
+        <v>230543207</v>
       </c>
       <c r="L15" t="n">
-        <v>16.36</v>
+        <v>15.75</v>
       </c>
       <c r="M15" t="n">
-        <v>13.35</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="16">
@@ -4669,40 +4722,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>35173</v>
+        <v>35053</v>
       </c>
       <c r="C16" t="n">
-        <v>17073</v>
+        <v>17033</v>
       </c>
       <c r="D16" t="n">
-        <v>18100</v>
+        <v>18020</v>
       </c>
       <c r="E16" t="n">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="F16" t="n">
-        <v>1125</v>
+        <v>1098</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4948</v>
+        <v>4937</v>
       </c>
       <c r="I16" t="n">
-        <v>28528</v>
+        <v>28574</v>
       </c>
       <c r="J16" t="n">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="K16" t="n">
-        <v>224432116</v>
+        <v>232886533</v>
       </c>
       <c r="L16" t="n">
-        <v>15.67</v>
+        <v>15.05</v>
       </c>
       <c r="M16" t="n">
-        <v>12.88</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="17">
@@ -4710,40 +4763,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>31601</v>
+        <v>34452</v>
       </c>
       <c r="C17" t="n">
-        <v>15220</v>
+        <v>16603</v>
       </c>
       <c r="D17" t="n">
-        <v>16381</v>
+        <v>17849</v>
       </c>
       <c r="E17" t="n">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="F17" t="n">
-        <v>1018</v>
+        <v>1074</v>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4372</v>
+        <v>4866</v>
       </c>
       <c r="I17" t="n">
-        <v>25753</v>
+        <v>28197</v>
       </c>
       <c r="J17" t="n">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="K17" t="n">
-        <v>226110371</v>
+        <v>248842463</v>
       </c>
       <c r="L17" t="n">
-        <v>13.98</v>
+        <v>13.84</v>
       </c>
       <c r="M17" t="n">
-        <v>11.56</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="18">
@@ -4751,40 +4804,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>374778</v>
+        <v>375826</v>
       </c>
       <c r="C18" t="n">
-        <v>180307</v>
+        <v>180728</v>
       </c>
       <c r="D18" t="n">
-        <v>194471</v>
+        <v>195098</v>
       </c>
       <c r="E18" t="n">
-        <v>3507</v>
+        <v>2438</v>
       </c>
       <c r="F18" t="n">
-        <v>11502</v>
+        <v>11107</v>
       </c>
       <c r="G18" t="n">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>51695</v>
+        <v>51991</v>
       </c>
       <c r="I18" t="n">
-        <v>306779</v>
+        <v>309586</v>
       </c>
       <c r="J18" t="n">
-        <v>1118</v>
+        <v>681</v>
       </c>
       <c r="K18" t="n">
-        <v>3399541850</v>
+        <v>3409422202</v>
       </c>
       <c r="L18" t="n">
         <v>11.02</v>
       </c>
       <c r="M18" t="n">
-        <v>9.41</v>
+        <v>4.96</v>
       </c>
     </row>
   </sheetData>
@@ -4934,143 +4987,160 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>104</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5109,16 +5179,16 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -5126,16 +5196,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -5143,16 +5213,16 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -5160,16 +5230,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -5177,16 +5247,16 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -5194,16 +5264,16 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -5211,152 +5281,169 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5395,16 +5482,16 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
@@ -5412,16 +5499,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -5429,16 +5516,16 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5">
@@ -5446,16 +5533,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -5463,16 +5550,16 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
@@ -5480,16 +5567,16 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -5497,123 +5584,123 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>220</v>
@@ -5630,7 +5717,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>224</v>
@@ -5639,10 +5726,27 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
         <v>226</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
         <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5661,34 +5765,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J1" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2">
@@ -5696,31 +5809,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1314</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>9870</v>
+        <v>1342</v>
       </c>
       <c r="D2" t="n">
-        <v>49573</v>
+        <v>9864</v>
       </c>
       <c r="E2" t="n">
-        <v>5385</v>
+        <v>28213</v>
       </c>
       <c r="F2" t="n">
+        <v>1281</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5821</v>
+      </c>
+      <c r="H2" t="n">
         <v>34614</v>
       </c>
-      <c r="G2" t="n">
-        <v>117781</v>
-      </c>
-      <c r="H2" t="n">
-        <v>796</v>
-      </c>
       <c r="I2" t="n">
-        <v>6190</v>
+        <v>75327</v>
       </c>
       <c r="J2" t="n">
-        <v>23927</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>760</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6094</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14938</v>
       </c>
     </row>
     <row r="3">
@@ -5728,31 +5850,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1339</v>
+        <v>130</v>
       </c>
       <c r="C3" t="n">
-        <v>10106</v>
+        <v>1369</v>
       </c>
       <c r="D3" t="n">
-        <v>49913</v>
+        <v>10088</v>
       </c>
       <c r="E3" t="n">
-        <v>5603</v>
+        <v>28255</v>
       </c>
       <c r="F3" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6035</v>
+      </c>
+      <c r="H3" t="n">
         <v>36401</v>
       </c>
-      <c r="G3" t="n">
-        <v>121114</v>
-      </c>
-      <c r="H3" t="n">
-        <v>955</v>
-      </c>
       <c r="I3" t="n">
-        <v>6475</v>
+        <v>76798</v>
       </c>
       <c r="J3" t="n">
-        <v>24525</v>
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>943</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6323</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15358</v>
       </c>
     </row>
     <row r="4">
@@ -5760,31 +5891,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1234</v>
+        <v>133</v>
       </c>
       <c r="C4" t="n">
+        <v>1285</v>
+      </c>
+      <c r="D4" t="n">
         <v>10259</v>
       </c>
-      <c r="D4" t="n">
-        <v>48643</v>
-      </c>
       <c r="E4" t="n">
-        <v>5436</v>
+        <v>27520</v>
       </c>
       <c r="F4" t="n">
+        <v>1084</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5849</v>
+      </c>
+      <c r="H4" t="n">
         <v>36284</v>
       </c>
-      <c r="G4" t="n">
-        <v>121775</v>
-      </c>
-      <c r="H4" t="n">
-        <v>819</v>
-      </c>
       <c r="I4" t="n">
-        <v>6659</v>
+        <v>77323</v>
       </c>
       <c r="J4" t="n">
-        <v>23635</v>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>805</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6523</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14820</v>
       </c>
     </row>
     <row r="5">
@@ -5792,31 +5932,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>1424</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n">
-        <v>10598</v>
+        <v>1471</v>
       </c>
       <c r="D5" t="n">
-        <v>49116</v>
+        <v>10589</v>
       </c>
       <c r="E5" t="n">
-        <v>5750</v>
+        <v>28201</v>
       </c>
       <c r="F5" t="n">
+        <v>998</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6217</v>
+      </c>
+      <c r="H5" t="n">
         <v>38069</v>
       </c>
-      <c r="G5" t="n">
-        <v>128249</v>
-      </c>
-      <c r="H5" t="n">
-        <v>998</v>
-      </c>
       <c r="I5" t="n">
-        <v>7175</v>
+        <v>81929</v>
       </c>
       <c r="J5" t="n">
-        <v>24680</v>
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>984</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7079</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15866</v>
       </c>
     </row>
     <row r="6">
@@ -5824,31 +5973,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>1467</v>
+        <v>141</v>
       </c>
       <c r="C6" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D6" t="n">
         <v>10868</v>
       </c>
-      <c r="D6" t="n">
-        <v>48788</v>
-      </c>
       <c r="E6" t="n">
-        <v>5991</v>
+        <v>28086</v>
       </c>
       <c r="F6" t="n">
+        <v>986</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6498</v>
+      </c>
+      <c r="H6" t="n">
         <v>40527</v>
       </c>
-      <c r="G6" t="n">
-        <v>134159</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1042</v>
-      </c>
       <c r="I6" t="n">
-        <v>7633</v>
+        <v>85961</v>
       </c>
       <c r="J6" t="n">
-        <v>25382</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>988</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7529</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16179</v>
       </c>
     </row>
     <row r="7">
@@ -5856,31 +6014,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>1511</v>
+        <v>167</v>
       </c>
       <c r="C7" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D7" t="n">
         <v>11100</v>
       </c>
-      <c r="D7" t="n">
-        <v>49871</v>
-      </c>
       <c r="E7" t="n">
-        <v>6232</v>
+        <v>29178</v>
       </c>
       <c r="F7" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6677</v>
+      </c>
+      <c r="H7" t="n">
         <v>42257</v>
       </c>
-      <c r="G7" t="n">
-        <v>145091</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1013</v>
-      </c>
       <c r="I7" t="n">
-        <v>7960</v>
+        <v>92678</v>
       </c>
       <c r="J7" t="n">
-        <v>27251</v>
+        <v>22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>971</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7859</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17713</v>
       </c>
     </row>
     <row r="8">
@@ -5888,31 +6055,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>1669</v>
+        <v>153</v>
       </c>
       <c r="C8" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D8" t="n">
         <v>11533</v>
       </c>
-      <c r="D8" t="n">
-        <v>48944</v>
-      </c>
       <c r="E8" t="n">
-        <v>6665</v>
+        <v>29260</v>
       </c>
       <c r="F8" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7188</v>
+      </c>
+      <c r="H8" t="n">
         <v>43318</v>
       </c>
-      <c r="G8" t="n">
-        <v>146345</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1127</v>
-      </c>
       <c r="I8" t="n">
-        <v>8282</v>
+        <v>94575</v>
       </c>
       <c r="J8" t="n">
-        <v>26511</v>
+        <v>22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8216</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17571</v>
       </c>
     </row>
     <row r="9">
@@ -5920,31 +6096,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>1665</v>
+        <v>217</v>
       </c>
       <c r="C9" t="n">
+        <v>1707</v>
+      </c>
+      <c r="D9" t="n">
         <v>11785</v>
       </c>
-      <c r="D9" t="n">
-        <v>49365</v>
-      </c>
       <c r="E9" t="n">
-        <v>6769</v>
+        <v>30121</v>
       </c>
       <c r="F9" t="n">
+        <v>1033</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7211</v>
+      </c>
+      <c r="H9" t="n">
         <v>43383</v>
       </c>
-      <c r="G9" t="n">
-        <v>151983</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1181</v>
-      </c>
       <c r="I9" t="n">
-        <v>8217</v>
+        <v>98780</v>
       </c>
       <c r="J9" t="n">
-        <v>27150</v>
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1201</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8162</v>
+      </c>
+      <c r="M9" t="n">
+        <v>18057</v>
       </c>
     </row>
     <row r="10">
@@ -5952,31 +6137,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>1780</v>
+        <v>283</v>
       </c>
       <c r="C10" t="n">
-        <v>11937</v>
+        <v>3613</v>
       </c>
       <c r="D10" t="n">
-        <v>49210</v>
+        <v>23869</v>
       </c>
       <c r="E10" t="n">
-        <v>6849</v>
+        <v>61041</v>
       </c>
       <c r="F10" t="n">
-        <v>43748</v>
+        <v>1931</v>
       </c>
       <c r="G10" t="n">
-        <v>153782</v>
+        <v>14615</v>
       </c>
       <c r="H10" t="n">
-        <v>1251</v>
+        <v>87490</v>
       </c>
       <c r="I10" t="n">
-        <v>8197</v>
+        <v>202276</v>
       </c>
       <c r="J10" t="n">
-        <v>27181</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2402</v>
+      </c>
+      <c r="L10" t="n">
+        <v>16231</v>
+      </c>
+      <c r="M10" t="n">
+        <v>36921</v>
       </c>
     </row>
     <row r="11">
@@ -5984,31 +6178,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>1834</v>
+        <v>327</v>
       </c>
       <c r="C11" t="n">
-        <v>11798</v>
+        <v>3793</v>
       </c>
       <c r="D11" t="n">
-        <v>47930</v>
+        <v>23548</v>
       </c>
       <c r="E11" t="n">
-        <v>6967</v>
+        <v>61098</v>
       </c>
       <c r="F11" t="n">
-        <v>42669</v>
+        <v>1787</v>
       </c>
       <c r="G11" t="n">
-        <v>149974</v>
+        <v>14762</v>
       </c>
       <c r="H11" t="n">
-        <v>1260</v>
+        <v>85329</v>
       </c>
       <c r="I11" t="n">
-        <v>8044</v>
+        <v>200876</v>
       </c>
       <c r="J11" t="n">
-        <v>25909</v>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2522</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15878</v>
+      </c>
+      <c r="M11" t="n">
+        <v>35963</v>
       </c>
     </row>
     <row r="12">
@@ -6016,31 +6219,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>2772</v>
+        <v>227</v>
       </c>
       <c r="C12" t="n">
-        <v>16765</v>
+        <v>5691</v>
       </c>
       <c r="D12" t="n">
-        <v>62596</v>
+        <v>33522</v>
       </c>
       <c r="E12" t="n">
-        <v>9010</v>
+        <v>83643</v>
       </c>
       <c r="F12" t="n">
-        <v>54122</v>
+        <v>1700</v>
       </c>
       <c r="G12" t="n">
-        <v>177581</v>
+        <v>18940</v>
       </c>
       <c r="H12" t="n">
-        <v>1783</v>
+        <v>108244</v>
       </c>
       <c r="I12" t="n">
-        <v>11533</v>
+        <v>247248</v>
       </c>
       <c r="J12" t="n">
-        <v>33960</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3572</v>
+      </c>
+      <c r="L12" t="n">
+        <v>23025</v>
+      </c>
+      <c r="M12" t="n">
+        <v>49913</v>
       </c>
     </row>
     <row r="13">
@@ -6048,31 +6260,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>5076</v>
+        <v>245</v>
       </c>
       <c r="C13" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D13" t="n">
         <v>27822</v>
       </c>
-      <c r="D13" t="n">
-        <v>84970</v>
-      </c>
       <c r="E13" t="n">
-        <v>11667</v>
+        <v>59946</v>
       </c>
       <c r="F13" t="n">
+        <v>875</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12220</v>
+      </c>
+      <c r="H13" t="n">
         <v>62917</v>
       </c>
-      <c r="G13" t="n">
-        <v>184821</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3386</v>
-      </c>
       <c r="I13" t="n">
-        <v>19201</v>
+        <v>133534</v>
       </c>
       <c r="J13" t="n">
-        <v>48981</v>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3375</v>
+      </c>
+      <c r="L13" t="n">
+        <v>19121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>37231</v>
       </c>
     </row>
     <row r="14">
@@ -6080,31 +6301,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>4552</v>
+        <v>298</v>
       </c>
       <c r="C14" t="n">
-        <v>25711</v>
+        <v>4666</v>
       </c>
       <c r="D14" t="n">
-        <v>98754</v>
+        <v>25702</v>
       </c>
       <c r="E14" t="n">
-        <v>9442</v>
+        <v>67890</v>
       </c>
       <c r="F14" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9867</v>
+      </c>
+      <c r="H14" t="n">
         <v>52344</v>
       </c>
-      <c r="G14" t="n">
-        <v>180253</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3069</v>
-      </c>
       <c r="I14" t="n">
-        <v>18164</v>
+        <v>128513</v>
       </c>
       <c r="J14" t="n">
-        <v>58561</v>
+        <v>10</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3107</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18098</v>
+      </c>
+      <c r="M14" t="n">
+        <v>43085</v>
       </c>
     </row>
     <row r="15">
@@ -6112,31 +6342,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>4026</v>
+        <v>330</v>
       </c>
       <c r="C15" t="n">
-        <v>21298</v>
+        <v>4119</v>
       </c>
       <c r="D15" t="n">
-        <v>88143</v>
+        <v>21281</v>
       </c>
       <c r="E15" t="n">
-        <v>8369</v>
+        <v>60042</v>
       </c>
       <c r="F15" t="n">
+        <v>1102</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8741</v>
+      </c>
+      <c r="H15" t="n">
         <v>45445</v>
       </c>
-      <c r="G15" t="n">
-        <v>170012</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2756</v>
-      </c>
       <c r="I15" t="n">
-        <v>15515</v>
+        <v>120187</v>
       </c>
       <c r="J15" t="n">
-        <v>54084</v>
+        <v>20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2806</v>
+      </c>
+      <c r="L15" t="n">
+        <v>15392</v>
+      </c>
+      <c r="M15" t="n">
+        <v>39211</v>
       </c>
     </row>
     <row r="16">
@@ -6144,31 +6383,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>3905</v>
+        <v>338</v>
       </c>
       <c r="C16" t="n">
-        <v>20382</v>
+        <v>4007</v>
       </c>
       <c r="D16" t="n">
-        <v>86336</v>
+        <v>20371</v>
       </c>
       <c r="E16" t="n">
-        <v>7831</v>
+        <v>59126</v>
       </c>
       <c r="F16" t="n">
-        <v>42935</v>
+        <v>953</v>
       </c>
       <c r="G16" t="n">
-        <v>168940</v>
+        <v>8173</v>
       </c>
       <c r="H16" t="n">
-        <v>2586</v>
+        <v>42941</v>
       </c>
       <c r="I16" t="n">
-        <v>14304</v>
+        <v>119806</v>
       </c>
       <c r="J16" t="n">
-        <v>52929</v>
+        <v>23</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2546</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14231</v>
+      </c>
+      <c r="M16" t="n">
+        <v>38600</v>
       </c>
     </row>
     <row r="17">
@@ -6176,31 +6424,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>3346</v>
+        <v>300</v>
       </c>
       <c r="C17" t="n">
-        <v>17608</v>
+        <v>3705</v>
       </c>
       <c r="D17" t="n">
-        <v>77887</v>
+        <v>19256</v>
       </c>
       <c r="E17" t="n">
-        <v>6795</v>
+        <v>58942</v>
       </c>
       <c r="F17" t="n">
-        <v>37519</v>
+        <v>866</v>
       </c>
       <c r="G17" t="n">
-        <v>154026</v>
+        <v>7758</v>
       </c>
       <c r="H17" t="n">
-        <v>2318</v>
+        <v>41012</v>
       </c>
       <c r="I17" t="n">
-        <v>12343</v>
+        <v>120183</v>
       </c>
       <c r="J17" t="n">
-        <v>48104</v>
+        <v>47</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2480</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13345</v>
+      </c>
+      <c r="M17" t="n">
+        <v>38721</v>
       </c>
     </row>
     <row r="18">
@@ -6208,31 +6465,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>38914</v>
+        <v>3591</v>
       </c>
       <c r="C18" t="n">
-        <v>239440</v>
+        <v>46811</v>
       </c>
       <c r="D18" t="n">
-        <v>990039</v>
+        <v>281457</v>
       </c>
       <c r="E18" t="n">
-        <v>114761</v>
+        <v>740562</v>
       </c>
       <c r="F18" t="n">
-        <v>696552</v>
+        <v>18999</v>
       </c>
       <c r="G18" t="n">
-        <v>2405886</v>
+        <v>146572</v>
       </c>
       <c r="H18" t="n">
-        <v>26340</v>
+        <v>840575</v>
       </c>
       <c r="I18" t="n">
-        <v>165892</v>
+        <v>1955994</v>
       </c>
       <c r="J18" t="n">
-        <v>552770</v>
+        <v>144</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30612</v>
+      </c>
+      <c r="L18" t="n">
+        <v>193106</v>
+      </c>
+      <c r="M18" t="n">
+        <v>450147</v>
       </c>
     </row>
   </sheetData>
@@ -6251,34 +6517,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2">
@@ -6286,31 +6561,38 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="C2" t="n">
-        <v>11.52</v>
+        <v>1.47</v>
       </c>
       <c r="D2" t="n">
-        <v>121.14</v>
+        <v>11.68</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8</v>
+        <v>86.56</v>
       </c>
       <c r="F2" t="n">
-        <v>40.47</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>289.77</v>
+        <v>5.99</v>
       </c>
       <c r="H2" t="n">
-        <v>0.55</v>
+        <v>40.87</v>
       </c>
       <c r="I2" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.44</v>
+        <v>228.32</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22.96</v>
       </c>
     </row>
     <row r="3">
@@ -6318,31 +6600,38 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1.79</v>
+        <v>0.72</v>
       </c>
       <c r="C3" t="n">
-        <v>11.49</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="n">
-        <v>118.58</v>
+        <v>11.59</v>
       </c>
       <c r="E3" t="n">
-        <v>7.09</v>
+        <v>85.16</v>
       </c>
       <c r="F3" t="n">
-        <v>41.52</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>289.71</v>
+        <v>6.16</v>
       </c>
       <c r="H3" t="n">
-        <v>0.66</v>
+        <v>41.79</v>
       </c>
       <c r="I3" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.41</v>
+        <v>228.25</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.01</v>
       </c>
     </row>
     <row r="4">
@@ -6350,31 +6639,38 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1.66</v>
+        <v>0.62</v>
       </c>
       <c r="C4" t="n">
-        <v>11.6</v>
+        <v>1.42</v>
       </c>
       <c r="D4" t="n">
-        <v>112.38</v>
+        <v>11.69</v>
       </c>
       <c r="E4" t="n">
-        <v>6.86</v>
+        <v>80.84</v>
       </c>
       <c r="F4" t="n">
-        <v>41.04</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>282.87</v>
+        <v>5.93</v>
       </c>
       <c r="H4" t="n">
-        <v>0.58</v>
+        <v>41.34</v>
       </c>
       <c r="I4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27.49</v>
+        <v>223.64</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21.59</v>
       </c>
     </row>
     <row r="5">
@@ -6382,31 +6678,38 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="C5" t="n">
-        <v>11.87</v>
+        <v>1.56</v>
       </c>
       <c r="D5" t="n">
-        <v>110.57</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>7.23</v>
+        <v>80.59</v>
       </c>
       <c r="F5" t="n">
-        <v>42.69</v>
+        <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>289.8</v>
+        <v>6.25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.68</v>
+        <v>42.99</v>
       </c>
       <c r="I5" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28.02</v>
+        <v>230.09</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22.54</v>
       </c>
     </row>
     <row r="6">
@@ -6414,31 +6717,38 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9</v>
+        <v>0.66</v>
       </c>
       <c r="C6" t="n">
-        <v>12.03</v>
+        <v>1.62</v>
       </c>
       <c r="D6" t="n">
-        <v>106.96</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>7.52</v>
+        <v>78.07</v>
       </c>
       <c r="F6" t="n">
-        <v>44.96</v>
+        <v>1.27</v>
       </c>
       <c r="G6" t="n">
-        <v>294.8</v>
+        <v>6.54</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7</v>
+        <v>45.19</v>
       </c>
       <c r="I6" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>27.91</v>
+        <v>234.28</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.15</v>
       </c>
     </row>
     <row r="7">
@@ -6446,31 +6756,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>1.95</v>
+        <v>0.78</v>
       </c>
       <c r="C7" t="n">
-        <v>12.15</v>
+        <v>1.68</v>
       </c>
       <c r="D7" t="n">
-        <v>106.67</v>
+        <v>12.23</v>
       </c>
       <c r="E7" t="n">
-        <v>7.75</v>
+        <v>78.96</v>
       </c>
       <c r="F7" t="n">
-        <v>46.32</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>310.65</v>
+        <v>6.76</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>46.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.41</v>
+        <v>245.77</v>
       </c>
       <c r="J7" t="n">
-        <v>29.32</v>
+        <v>0.72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>23.67</v>
       </c>
     </row>
     <row r="8">
@@ -6478,31 +6797,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>2.14</v>
+        <v>0.72</v>
       </c>
       <c r="C8" t="n">
-        <v>12.5</v>
+        <v>1.86</v>
       </c>
       <c r="D8" t="n">
-        <v>102.36</v>
+        <v>12.57</v>
       </c>
       <c r="E8" t="n">
-        <v>8.28</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>47.05</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="n">
-        <v>305.68</v>
+        <v>7.22</v>
       </c>
       <c r="H8" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="I8" t="n">
+        <v>243.68</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.76</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>27.8</v>
+      <c r="K8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M8" t="n">
+        <v>22.74</v>
       </c>
     </row>
     <row r="9">
@@ -6510,31 +6838,38 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>2.11</v>
+        <v>0.46</v>
       </c>
       <c r="C9" t="n">
-        <v>12.72</v>
+        <v>1.83</v>
       </c>
       <c r="D9" t="n">
-        <v>100.48</v>
+        <v>12.78</v>
       </c>
       <c r="E9" t="n">
-        <v>8.3</v>
+        <v>76.01</v>
       </c>
       <c r="F9" t="n">
-        <v>46.77</v>
+        <v>1.32</v>
       </c>
       <c r="G9" t="n">
-        <v>308.74</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>47.02</v>
       </c>
       <c r="I9" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J9" t="n">
-        <v>27.65</v>
+        <v>244.84</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="10">
@@ -6542,31 +6877,38 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="C10" t="n">
-        <v>12.96</v>
+        <v>1.93</v>
       </c>
       <c r="D10" t="n">
-        <v>97.39</v>
+        <v>13.03</v>
       </c>
       <c r="E10" t="n">
-        <v>8.39</v>
+        <v>73.94</v>
       </c>
       <c r="F10" t="n">
-        <v>47.27</v>
+        <v>1.31</v>
       </c>
       <c r="G10" t="n">
-        <v>303.58</v>
+        <v>7.27</v>
       </c>
       <c r="H10" t="n">
-        <v>0.86</v>
+        <v>47.48</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>27.08</v>
+        <v>241.67</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M10" t="n">
+        <v>22.23</v>
       </c>
     </row>
     <row r="11">
@@ -6574,31 +6916,38 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>2.39</v>
+        <v>0.48</v>
       </c>
       <c r="C11" t="n">
-        <v>12.83</v>
+        <v>2.05</v>
       </c>
       <c r="D11" t="n">
-        <v>92.57</v>
+        <v>12.89</v>
       </c>
       <c r="E11" t="n">
-        <v>8.43</v>
+        <v>71.59</v>
       </c>
       <c r="F11" t="n">
-        <v>46.16</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>288.5</v>
+        <v>7.32</v>
       </c>
       <c r="H11" t="n">
-        <v>0.86</v>
+        <v>46.33</v>
       </c>
       <c r="I11" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25.07</v>
+        <v>231.78</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.89</v>
       </c>
     </row>
     <row r="12">
@@ -6606,31 +6955,38 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>3.39</v>
+        <v>0.63</v>
       </c>
       <c r="C12" t="n">
-        <v>18.33</v>
+        <v>2.92</v>
       </c>
       <c r="D12" t="n">
-        <v>117.69</v>
+        <v>18.37</v>
       </c>
       <c r="E12" t="n">
-        <v>10.84</v>
+        <v>93.83</v>
       </c>
       <c r="F12" t="n">
-        <v>59.1</v>
+        <v>1.19</v>
       </c>
       <c r="G12" t="n">
-        <v>332.62</v>
+        <v>9.32</v>
       </c>
       <c r="H12" t="n">
-        <v>1.17</v>
+        <v>59.18</v>
       </c>
       <c r="I12" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31.89</v>
+        <v>273.98</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.61</v>
       </c>
     </row>
     <row r="13">
@@ -6638,31 +6994,38 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>6.04</v>
+        <v>0.55</v>
       </c>
       <c r="C13" t="n">
-        <v>30.46</v>
+        <v>5.14</v>
       </c>
       <c r="D13" t="n">
-        <v>163.9</v>
+        <v>30.41</v>
       </c>
       <c r="E13" t="n">
-        <v>13.83</v>
+        <v>132.39</v>
       </c>
       <c r="F13" t="n">
-        <v>68.39</v>
+        <v>1.26</v>
       </c>
       <c r="G13" t="n">
-        <v>354.51</v>
+        <v>11.81</v>
       </c>
       <c r="H13" t="n">
-        <v>2.12</v>
+        <v>68.29</v>
       </c>
       <c r="I13" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="J13" t="n">
-        <v>46.71</v>
+        <v>292.48</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="M13" t="n">
+        <v>40.61</v>
       </c>
     </row>
     <row r="14">
@@ -6670,31 +7033,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>5.41</v>
+        <v>0.52</v>
       </c>
       <c r="C14" t="n">
-        <v>28.27</v>
+        <v>4.63</v>
       </c>
       <c r="D14" t="n">
-        <v>180.88</v>
+        <v>28.19</v>
       </c>
       <c r="E14" t="n">
-        <v>11.08</v>
+        <v>145.06</v>
       </c>
       <c r="F14" t="n">
-        <v>57.36</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>328.36</v>
+        <v>9.45</v>
       </c>
       <c r="H14" t="n">
-        <v>1.94</v>
+        <v>57.19</v>
       </c>
       <c r="I14" t="n">
-        <v>9.99</v>
+        <v>271.99</v>
       </c>
       <c r="J14" t="n">
-        <v>53.24</v>
+        <v>0.12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9.97</v>
+      </c>
+      <c r="M14" t="n">
+        <v>45.52</v>
       </c>
     </row>
     <row r="15">
@@ -6702,31 +7074,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>4.77</v>
+        <v>0.55</v>
       </c>
       <c r="C15" t="n">
-        <v>23.44</v>
+        <v>4.02</v>
       </c>
       <c r="D15" t="n">
-        <v>160.14</v>
+        <v>23.34</v>
       </c>
       <c r="E15" t="n">
-        <v>9.72</v>
+        <v>124.36</v>
       </c>
       <c r="F15" t="n">
-        <v>49.87</v>
+        <v>1.56</v>
       </c>
       <c r="G15" t="n">
-        <v>306.97</v>
+        <v>8.29</v>
       </c>
       <c r="H15" t="n">
-        <v>1.75</v>
+        <v>49.68</v>
       </c>
       <c r="I15" t="n">
-        <v>8.53</v>
+        <v>246.33</v>
       </c>
       <c r="J15" t="n">
-        <v>48.73</v>
+        <v>0.78</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="M15" t="n">
+        <v>40.27</v>
       </c>
     </row>
     <row r="16">
@@ -6734,31 +7115,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>4.56</v>
+        <v>0.56</v>
       </c>
       <c r="C16" t="n">
-        <v>22.47</v>
+        <v>3.78</v>
       </c>
       <c r="D16" t="n">
-        <v>157.08</v>
+        <v>22.4</v>
       </c>
       <c r="E16" t="n">
-        <v>9.12</v>
+        <v>118.14</v>
       </c>
       <c r="F16" t="n">
-        <v>47.17</v>
+        <v>1.38</v>
       </c>
       <c r="G16" t="n">
-        <v>305.19</v>
+        <v>7.62</v>
       </c>
       <c r="H16" t="n">
-        <v>1.58</v>
+        <v>47.02</v>
       </c>
       <c r="I16" t="n">
-        <v>7.91</v>
+        <v>237.01</v>
       </c>
       <c r="J16" t="n">
-        <v>47.74</v>
+        <v>0.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>38.27</v>
       </c>
     </row>
     <row r="17">
@@ -6766,31 +7156,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>3.93</v>
+        <v>0.69</v>
       </c>
       <c r="C17" t="n">
-        <v>19.43</v>
+        <v>3.53</v>
       </c>
       <c r="D17" t="n">
-        <v>141.6</v>
+        <v>21.2</v>
       </c>
       <c r="E17" t="n">
-        <v>7.94</v>
+        <v>117.61</v>
       </c>
       <c r="F17" t="n">
-        <v>41.25</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>278.37</v>
+        <v>7.23</v>
       </c>
       <c r="H17" t="n">
-        <v>1.41</v>
+        <v>44.92</v>
       </c>
       <c r="I17" t="n">
-        <v>6.84</v>
+        <v>237.74</v>
       </c>
       <c r="J17" t="n">
-        <v>43.39</v>
+        <v>0.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>38.45</v>
       </c>
     </row>
     <row r="18">
@@ -6798,31 +7197,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>3.05</v>
+        <v>0.39</v>
       </c>
       <c r="C18" t="n">
-        <v>16.52</v>
+        <v>2.57</v>
       </c>
       <c r="D18" t="n">
-        <v>126.13</v>
+        <v>16.39</v>
       </c>
       <c r="E18" t="n">
-        <v>8.74</v>
+        <v>94.48</v>
       </c>
       <c r="F18" t="n">
-        <v>48.01</v>
+        <v>1.36</v>
       </c>
       <c r="G18" t="n">
-        <v>305.48</v>
+        <v>7.62</v>
       </c>
       <c r="H18" t="n">
-        <v>1.09</v>
+        <v>48.81</v>
       </c>
       <c r="I18" t="n">
-        <v>5.76</v>
+        <v>246.36</v>
       </c>
       <c r="J18" t="n">
-        <v>35.19</v>
+        <v>0.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>28.43</v>
       </c>
     </row>
   </sheetData>
@@ -6844,31 +7252,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="J1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
